--- a/raw_data/20200818_saline/20200818_Sensor3_Test_84.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_84.xlsx
@@ -1,993 +1,1409 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08B3267-7236-4D42-AF52-B81F7EF4D39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>75259.874374</v>
+        <v>75259.874374000006</v>
       </c>
       <c r="B2" s="1">
         <v>20.905521</v>
       </c>
       <c r="C2" s="1">
-        <v>1148.640000</v>
+        <v>1148.6400000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-253.675000</v>
+        <v>-253.67500000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>75270.282920</v>
+        <v>75270.282919999998</v>
       </c>
       <c r="G2" s="1">
-        <v>20.908412</v>
+        <v>20.908411999999998</v>
       </c>
       <c r="H2" s="1">
-        <v>1169.700000</v>
+        <v>1169.7</v>
       </c>
       <c r="I2" s="1">
-        <v>-215.609000</v>
+        <v>-215.60900000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>75281.420106</v>
+        <v>75281.420106000005</v>
       </c>
       <c r="L2" s="1">
-        <v>20.911506</v>
+        <v>20.911505999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1199.130000</v>
+        <v>1199.1300000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-150.584000</v>
+        <v>-150.584</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>75291.914475</v>
+        <v>75291.914474999998</v>
       </c>
       <c r="Q2" s="1">
-        <v>20.914421</v>
+        <v>20.914421000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1207.390000</v>
+        <v>1207.3900000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-128.964000</v>
+        <v>-128.964</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>75302.261982</v>
+        <v>75302.261981999996</v>
       </c>
       <c r="V2" s="1">
-        <v>20.917295</v>
+        <v>20.917294999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1215.540000</v>
+        <v>1215.54</v>
       </c>
       <c r="X2" s="1">
-        <v>-108.153000</v>
+        <v>-108.15300000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>75312.357057</v>
+        <v>75312.357057000001</v>
       </c>
       <c r="AA2" s="1">
         <v>20.920099</v>
       </c>
       <c r="AB2" s="1">
-        <v>1223.350000</v>
+        <v>1223.3499999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-91.416400</v>
+        <v>-91.416399999999996</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>75322.619812</v>
+        <v>75322.619812000004</v>
       </c>
       <c r="AF2" s="1">
-        <v>20.922950</v>
+        <v>20.92295</v>
       </c>
       <c r="AG2" s="1">
-        <v>1228.260000</v>
+        <v>1228.26</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.776200</v>
+        <v>-86.776200000000003</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>75332.801190</v>
+        <v>75332.801189999998</v>
       </c>
       <c r="AK2" s="1">
-        <v>20.925778</v>
+        <v>20.925778000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1235.560000</v>
+        <v>1235.56</v>
       </c>
       <c r="AM2" s="1">
-        <v>-90.076400</v>
+        <v>-90.076400000000007</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>75343.101080</v>
+        <v>75343.101079999993</v>
       </c>
       <c r="AP2" s="1">
         <v>20.928639</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1243.570000</v>
+        <v>1243.57</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.895000</v>
+        <v>-101.895</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>75354.394489</v>
+        <v>75354.394488999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>20.931776</v>
+        <v>20.931775999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1253.620000</v>
+        <v>1253.6199999999999</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.219000</v>
+        <v>-121.21899999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>75365.194874</v>
+        <v>75365.194873999993</v>
       </c>
       <c r="AZ2" s="1">
-        <v>20.934776</v>
+        <v>20.934775999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1262.120000</v>
+        <v>1262.1199999999999</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.729000</v>
+        <v>-138.72900000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>75376.156460</v>
+        <v>75376.156459999998</v>
       </c>
       <c r="BE2" s="1">
         <v>20.937821</v>
       </c>
       <c r="BF2" s="1">
-        <v>1302.450000</v>
+        <v>1302.45</v>
       </c>
       <c r="BG2" s="1">
-        <v>-220.888000</v>
+        <v>-220.88800000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>75387.204350</v>
+        <v>75387.20435</v>
       </c>
       <c r="BJ2" s="1">
-        <v>20.940890</v>
+        <v>20.94089</v>
       </c>
       <c r="BK2" s="1">
-        <v>1372.830000</v>
+        <v>1372.83</v>
       </c>
       <c r="BL2" s="1">
-        <v>-357.407000</v>
+        <v>-357.40699999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>75398.669870</v>
+        <v>75398.669869999998</v>
       </c>
       <c r="BO2" s="1">
-        <v>20.944075</v>
+        <v>20.944075000000002</v>
       </c>
       <c r="BP2" s="1">
-        <v>1488.500000</v>
+        <v>1488.5</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-578.791000</v>
+        <v>-578.79100000000005</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>75410.192431</v>
+        <v>75410.192431000003</v>
       </c>
       <c r="BT2" s="1">
-        <v>20.947276</v>
+        <v>20.947275999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1621.390000</v>
+        <v>1621.39</v>
       </c>
       <c r="BV2" s="1">
-        <v>-827.987000</v>
+        <v>-827.98699999999997</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>75420.841549</v>
+        <v>75420.841549000004</v>
       </c>
       <c r="BY2" s="1">
-        <v>20.950234</v>
+        <v>20.950233999999998</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1774.790000</v>
+        <v>1774.79</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1097.510000</v>
+        <v>-1097.51</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>75431.778819</v>
+        <v>75431.778818999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>20.953272</v>
+        <v>20.953271999999998</v>
       </c>
       <c r="CE2" s="1">
-        <v>2192.990000</v>
+        <v>2192.9899999999998</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1749.900000</v>
+        <v>-1749.9</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>75260.569765</v>
+        <v>75260.569764999993</v>
       </c>
       <c r="B3" s="1">
         <v>20.905714</v>
       </c>
       <c r="C3" s="1">
-        <v>1148.940000</v>
+        <v>1148.94</v>
       </c>
       <c r="D3" s="1">
-        <v>-253.344000</v>
+        <v>-253.34399999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>75270.972477</v>
+        <v>75270.972477000003</v>
       </c>
       <c r="G3" s="1">
-        <v>20.908603</v>
+        <v>20.908602999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1169.490000</v>
+        <v>1169.49</v>
       </c>
       <c r="I3" s="1">
-        <v>-214.059000</v>
+        <v>-214.059</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>75281.827833</v>
+        <v>75281.827833000003</v>
       </c>
       <c r="L3" s="1">
-        <v>20.911619</v>
+        <v>20.911619000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>1199.000000</v>
+        <v>1199</v>
       </c>
       <c r="N3" s="1">
-        <v>-150.473000</v>
+        <v>-150.47300000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>75292.343980</v>
+        <v>75292.343980000005</v>
       </c>
       <c r="Q3" s="1">
-        <v>20.914540</v>
+        <v>20.914539999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1207.370000</v>
+        <v>1207.3699999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-128.906000</v>
+        <v>-128.90600000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>75302.609710</v>
+        <v>75302.609710000004</v>
       </c>
       <c r="V3" s="1">
         <v>20.917392</v>
       </c>
       <c r="W3" s="1">
-        <v>1215.130000</v>
+        <v>1215.1300000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-108.342000</v>
+        <v>-108.342</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>75312.741952</v>
+        <v>75312.741951999997</v>
       </c>
       <c r="AA3" s="1">
         <v>20.920206</v>
       </c>
       <c r="AB3" s="1">
-        <v>1223.370000</v>
+        <v>1223.3699999999999</v>
       </c>
       <c r="AC3" s="1">
-        <v>-91.355000</v>
+        <v>-91.355000000000004</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>75323.003186</v>
+        <v>75323.003186000002</v>
       </c>
       <c r="AF3" s="1">
-        <v>20.923056</v>
+        <v>20.923055999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>1228.210000</v>
+        <v>1228.21</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.778200</v>
+        <v>-86.778199999999998</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>75333.231189</v>
+        <v>75333.231188999998</v>
       </c>
       <c r="AK3" s="1">
         <v>20.925898</v>
       </c>
       <c r="AL3" s="1">
-        <v>1235.580000</v>
+        <v>1235.58</v>
       </c>
       <c r="AM3" s="1">
-        <v>-90.040700</v>
+        <v>-90.040700000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>75343.825735</v>
+        <v>75343.825735000006</v>
       </c>
       <c r="AP3" s="1">
-        <v>20.928840</v>
+        <v>20.928840000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1243.590000</v>
+        <v>1243.5899999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.924000</v>
+        <v>-101.92400000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>75354.828520</v>
+        <v>75354.828519999995</v>
       </c>
       <c r="AU3" s="1">
-        <v>20.931897</v>
+        <v>20.931896999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1253.640000</v>
+        <v>1253.6400000000001</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.214000</v>
+        <v>-121.214</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>75365.554474</v>
+        <v>75365.554474000004</v>
       </c>
       <c r="AZ3" s="1">
-        <v>20.934876</v>
+        <v>20.934875999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1262.110000</v>
+        <v>1262.1099999999999</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.722000</v>
+        <v>-138.72200000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>75376.530977</v>
+        <v>75376.530977000002</v>
       </c>
       <c r="BE3" s="1">
         <v>20.937925</v>
       </c>
       <c r="BF3" s="1">
-        <v>1302.450000</v>
+        <v>1302.45</v>
       </c>
       <c r="BG3" s="1">
-        <v>-220.884000</v>
+        <v>-220.88399999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>75387.584815</v>
+        <v>75387.584814999995</v>
       </c>
       <c r="BJ3" s="1">
-        <v>20.940996</v>
+        <v>20.940995999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1372.810000</v>
+        <v>1372.81</v>
       </c>
       <c r="BL3" s="1">
-        <v>-357.461000</v>
+        <v>-357.46100000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>75399.100925</v>
+        <v>75399.100925000006</v>
       </c>
       <c r="BO3" s="1">
-        <v>20.944195</v>
+        <v>20.944195000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1488.500000</v>
+        <v>1488.5</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-578.832000</v>
+        <v>-578.83199999999999</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>75410.316927</v>
+        <v>75410.316927000007</v>
       </c>
       <c r="BT3" s="1">
-        <v>20.947310</v>
+        <v>20.947310000000002</v>
       </c>
       <c r="BU3" s="1">
-        <v>1621.340000</v>
+        <v>1621.34</v>
       </c>
       <c r="BV3" s="1">
-        <v>-827.920000</v>
+        <v>-827.92</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>75421.282480</v>
+        <v>75421.282479999994</v>
       </c>
       <c r="BY3" s="1">
-        <v>20.950356</v>
+        <v>20.950355999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1774.760000</v>
+        <v>1774.76</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1097.560000</v>
+        <v>-1097.56</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>75432.373553</v>
+        <v>75432.373552999998</v>
       </c>
       <c r="CD3" s="1">
-        <v>20.953437</v>
+        <v>20.953437000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>2191.400000</v>
+        <v>2191.4</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1748.180000</v>
+        <v>-1748.18</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>75260.945236</v>
       </c>
@@ -995,480 +1411,480 @@
         <v>20.905818</v>
       </c>
       <c r="C4" s="1">
-        <v>1149.330000</v>
+        <v>1149.33</v>
       </c>
       <c r="D4" s="1">
-        <v>-253.524000</v>
+        <v>-253.524</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>75271.351799</v>
+        <v>75271.351798999996</v>
       </c>
       <c r="G4" s="1">
-        <v>20.908709</v>
+        <v>20.908709000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>1170.980000</v>
+        <v>1170.98</v>
       </c>
       <c r="I4" s="1">
-        <v>-214.302000</v>
+        <v>-214.30199999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>75282.174511</v>
+        <v>75282.174511000005</v>
       </c>
       <c r="L4" s="1">
-        <v>20.911715</v>
+        <v>20.911715000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1198.750000</v>
+        <v>1198.75</v>
       </c>
       <c r="N4" s="1">
-        <v>-150.548000</v>
+        <v>-150.548</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>75292.690684</v>
+        <v>75292.690684000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>20.914636</v>
+        <v>20.914636000000002</v>
       </c>
       <c r="R4" s="1">
-        <v>1207.350000</v>
+        <v>1207.3499999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-128.886000</v>
+        <v>-128.886</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>75302.953901</v>
+        <v>75302.953901000001</v>
       </c>
       <c r="V4" s="1">
-        <v>20.917487</v>
+        <v>20.917487000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1215.340000</v>
+        <v>1215.3399999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-108.279000</v>
+        <v>-108.279</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>75313.169505</v>
+        <v>75313.169504999998</v>
       </c>
       <c r="AA4" s="1">
-        <v>20.920325</v>
+        <v>20.920324999999998</v>
       </c>
       <c r="AB4" s="1">
-        <v>1223.420000</v>
+        <v>1223.42</v>
       </c>
       <c r="AC4" s="1">
-        <v>-91.356600</v>
+        <v>-91.3566</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>75323.445122</v>
+        <v>75323.445122000005</v>
       </c>
       <c r="AF4" s="1">
-        <v>20.923179</v>
+        <v>20.923179000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1228.250000</v>
+        <v>1228.25</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.771700</v>
+        <v>-86.771699999999996</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>75333.564004</v>
       </c>
       <c r="AK4" s="1">
-        <v>20.925990</v>
+        <v>20.925989999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1235.540000</v>
+        <v>1235.54</v>
       </c>
       <c r="AM4" s="1">
-        <v>-90.092600</v>
+        <v>-90.092600000000004</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>75344.187320</v>
+        <v>75344.187319999997</v>
       </c>
       <c r="AP4" s="1">
-        <v>20.928941</v>
+        <v>20.928940999999998</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1243.590000</v>
+        <v>1243.5899999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.919000</v>
+        <v>-101.919</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>75355.191559</v>
+        <v>75355.191558999999</v>
       </c>
       <c r="AU4" s="1">
         <v>20.931998</v>
       </c>
       <c r="AV4" s="1">
-        <v>1253.600000</v>
+        <v>1253.5999999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.220000</v>
+        <v>-121.22</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>75365.914073</v>
+        <v>75365.914073000007</v>
       </c>
       <c r="AZ4" s="1">
-        <v>20.934976</v>
+        <v>20.934975999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1262.100000</v>
+        <v>1262.0999999999999</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.717000</v>
+        <v>-138.71700000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>75377.205035</v>
+        <v>75377.205035000006</v>
       </c>
       <c r="BE4" s="1">
-        <v>20.938113</v>
+        <v>20.938113000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1302.460000</v>
+        <v>1302.46</v>
       </c>
       <c r="BG4" s="1">
-        <v>-220.875000</v>
+        <v>-220.875</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>75388.333740</v>
+        <v>75388.333740000002</v>
       </c>
       <c r="BJ4" s="1">
-        <v>20.941204</v>
+        <v>20.941203999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1372.830000</v>
+        <v>1372.83</v>
       </c>
       <c r="BL4" s="1">
-        <v>-357.448000</v>
+        <v>-357.44799999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>75399.507118</v>
+        <v>75399.507117999994</v>
       </c>
       <c r="BO4" s="1">
-        <v>20.944308</v>
+        <v>20.944307999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1488.560000</v>
+        <v>1488.56</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-578.807000</v>
+        <v>-578.80700000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>75410.735086</v>
+        <v>75410.735086000001</v>
       </c>
       <c r="BT4" s="1">
         <v>20.947426</v>
       </c>
       <c r="BU4" s="1">
-        <v>1621.390000</v>
+        <v>1621.39</v>
       </c>
       <c r="BV4" s="1">
-        <v>-828.032000</v>
+        <v>-828.03200000000004</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>75421.703586</v>
+        <v>75421.703586000003</v>
       </c>
       <c r="BY4" s="1">
-        <v>20.950473</v>
+        <v>20.950472999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1774.720000</v>
+        <v>1774.72</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1097.470000</v>
+        <v>-1097.47</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>75433.225650</v>
+        <v>75433.225649999993</v>
       </c>
       <c r="CD4" s="1">
-        <v>20.953674</v>
+        <v>20.953673999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>2193.390000</v>
+        <v>2193.39</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1749.130000</v>
+        <v>-1749.13</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>75261.287476</v>
+        <v>75261.287475999998</v>
       </c>
       <c r="B5" s="1">
-        <v>20.905913</v>
+        <v>20.905913000000002</v>
       </c>
       <c r="C5" s="1">
-        <v>1148.930000</v>
+        <v>1148.93</v>
       </c>
       <c r="D5" s="1">
-        <v>-253.626000</v>
+        <v>-253.626</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>75271.696023</v>
+        <v>75271.696022999997</v>
       </c>
       <c r="G5" s="1">
         <v>20.908804</v>
       </c>
       <c r="H5" s="1">
-        <v>1170.860000</v>
+        <v>1170.8599999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-213.827000</v>
+        <v>-213.827</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>75282.521559</v>
+        <v>75282.521559000001</v>
       </c>
       <c r="L5" s="1">
-        <v>20.911812</v>
+        <v>20.911812000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1199.020000</v>
+        <v>1199.02</v>
       </c>
       <c r="N5" s="1">
-        <v>-150.574000</v>
+        <v>-150.57400000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>75293.029450</v>
+        <v>75293.029450000002</v>
       </c>
       <c r="Q5" s="1">
-        <v>20.914730</v>
+        <v>20.914729999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1207.370000</v>
+        <v>1207.3699999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>-128.894000</v>
+        <v>-128.89400000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>75303.386909</v>
+        <v>75303.386908999993</v>
       </c>
       <c r="V5" s="1">
         <v>20.917607</v>
       </c>
       <c r="W5" s="1">
-        <v>1215.310000</v>
+        <v>1215.31</v>
       </c>
       <c r="X5" s="1">
-        <v>-108.256000</v>
+        <v>-108.256</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>75313.460655</v>
+        <v>75313.460655000003</v>
       </c>
       <c r="AA5" s="1">
         <v>20.920406</v>
       </c>
       <c r="AB5" s="1">
-        <v>1223.280000</v>
+        <v>1223.28</v>
       </c>
       <c r="AC5" s="1">
-        <v>-91.372300</v>
+        <v>-91.372299999999996</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>75323.725859</v>
+        <v>75323.725858999998</v>
       </c>
       <c r="AF5" s="1">
         <v>20.923257</v>
       </c>
       <c r="AG5" s="1">
-        <v>1228.190000</v>
+        <v>1228.19</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.811200</v>
+        <v>-86.811199999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>75333.914192</v>
+        <v>75333.914191999997</v>
       </c>
       <c r="AK5" s="1">
-        <v>20.926087</v>
+        <v>20.926086999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1235.570000</v>
+        <v>1235.57</v>
       </c>
       <c r="AM5" s="1">
-        <v>-90.092800</v>
+        <v>-90.092799999999997</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>75344.546422</v>
+        <v>75344.546421999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>20.929041</v>
+        <v>20.929041000000002</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1243.590000</v>
+        <v>1243.5899999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.911000</v>
+        <v>-101.911</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>75355.555129</v>
       </c>
       <c r="AU5" s="1">
-        <v>20.932099</v>
+        <v>20.932099000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1253.620000</v>
+        <v>1253.6199999999999</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.236000</v>
+        <v>-121.236</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>75366.640713</v>
+        <v>75366.640713000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>20.935178</v>
+        <v>20.935178000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1262.100000</v>
+        <v>1262.0999999999999</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.738000</v>
+        <v>-138.738</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>75377.625115</v>
+        <v>75377.625115000003</v>
       </c>
       <c r="BE5" s="1">
         <v>20.938229</v>
       </c>
       <c r="BF5" s="1">
-        <v>1302.460000</v>
+        <v>1302.46</v>
       </c>
       <c r="BG5" s="1">
-        <v>-220.892000</v>
+        <v>-220.892</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>75388.707227</v>
+        <v>75388.707227000006</v>
       </c>
       <c r="BJ5" s="1">
-        <v>20.941308</v>
+        <v>20.941307999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1372.800000</v>
+        <v>1372.8</v>
       </c>
       <c r="BL5" s="1">
-        <v>-357.454000</v>
+        <v>-357.45400000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>75399.904413</v>
+        <v>75399.904412999997</v>
       </c>
       <c r="BO5" s="1">
-        <v>20.944418</v>
+        <v>20.944417999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1488.510000</v>
+        <v>1488.51</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-578.806000</v>
+        <v>-578.80600000000004</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>75411.476090</v>
+        <v>75411.476089999996</v>
       </c>
       <c r="BT5" s="1">
-        <v>20.947632</v>
+        <v>20.947631999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1621.370000</v>
+        <v>1621.37</v>
       </c>
       <c r="BV5" s="1">
-        <v>-827.956000</v>
+        <v>-827.95600000000002</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>75422.465935</v>
@@ -1477,1133 +1893,1133 @@
         <v>20.950685</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1774.840000</v>
+        <v>1774.84</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1097.470000</v>
+        <v>-1097.47</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>75433.449840</v>
+        <v>75433.449840000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>20.953736</v>
+        <v>20.953735999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>2193.420000</v>
+        <v>2193.42</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1749.500000</v>
+        <v>-1749.5</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>75261.629715</v>
+        <v>75261.629715000003</v>
       </c>
       <c r="B6" s="1">
         <v>20.906008</v>
       </c>
       <c r="C6" s="1">
-        <v>1148.890000</v>
+        <v>1148.8900000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-253.470000</v>
+        <v>-253.47</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>75272.039254</v>
+        <v>75272.039254000003</v>
       </c>
       <c r="G6" s="1">
-        <v>20.908900</v>
+        <v>20.908899999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1170.370000</v>
+        <v>1170.3699999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-214.312000</v>
+        <v>-214.31200000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>75282.935400</v>
+        <v>75282.935400000002</v>
       </c>
       <c r="L6" s="1">
-        <v>20.911926</v>
+        <v>20.911926000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1199.030000</v>
+        <v>1199.03</v>
       </c>
       <c r="N6" s="1">
-        <v>-150.357000</v>
+        <v>-150.357</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>75293.514043</v>
+        <v>75293.514043000003</v>
       </c>
       <c r="Q6" s="1">
-        <v>20.914865</v>
+        <v>20.914864999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1207.380000</v>
+        <v>1207.3800000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-128.860000</v>
+        <v>-128.86000000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>75303.644828</v>
+        <v>75303.644828000004</v>
       </c>
       <c r="V6" s="1">
         <v>20.917679</v>
       </c>
       <c r="W6" s="1">
-        <v>1215.140000</v>
+        <v>1215.1400000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-108.435000</v>
+        <v>-108.435</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>75313.809839</v>
+        <v>75313.809838999994</v>
       </c>
       <c r="AA6" s="1">
         <v>20.920503</v>
       </c>
       <c r="AB6" s="1">
-        <v>1223.330000</v>
+        <v>1223.33</v>
       </c>
       <c r="AC6" s="1">
-        <v>-91.326100</v>
+        <v>-91.326099999999997</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>75324.067105</v>
+        <v>75324.067104999995</v>
       </c>
       <c r="AF6" s="1">
-        <v>20.923352</v>
+        <v>20.923352000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1228.200000</v>
+        <v>1228.2</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.798400</v>
+        <v>-86.798400000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>75334.261875</v>
+        <v>75334.261874999997</v>
       </c>
       <c r="AK6" s="1">
-        <v>20.926184</v>
+        <v>20.926183999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1235.550000</v>
+        <v>1235.55</v>
       </c>
       <c r="AM6" s="1">
-        <v>-90.045300</v>
+        <v>-90.045299999999997</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>75345.265774</v>
       </c>
       <c r="AP6" s="1">
-        <v>20.929240</v>
+        <v>20.92924</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1243.590000</v>
+        <v>1243.5899999999999</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.894000</v>
+        <v>-101.89400000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>75356.287751</v>
+        <v>75356.287750999996</v>
       </c>
       <c r="AU6" s="1">
         <v>20.932302</v>
       </c>
       <c r="AV6" s="1">
-        <v>1253.600000</v>
+        <v>1253.5999999999999</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.212000</v>
+        <v>-121.212</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>75367.018200</v>
+        <v>75367.018200000006</v>
       </c>
       <c r="AZ6" s="1">
-        <v>20.935283</v>
+        <v>20.935282999999998</v>
       </c>
       <c r="BA6" s="1">
-        <v>1262.120000</v>
+        <v>1262.1199999999999</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.716000</v>
+        <v>-138.71600000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>75378.018939</v>
+        <v>75378.018939000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>20.938339</v>
+        <v>20.938338999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1302.430000</v>
+        <v>1302.43</v>
       </c>
       <c r="BG6" s="1">
-        <v>-220.889000</v>
+        <v>-220.88900000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>75389.085706</v>
+        <v>75389.085705999998</v>
       </c>
       <c r="BJ6" s="1">
-        <v>20.941413</v>
+        <v>20.941413000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1372.820000</v>
+        <v>1372.82</v>
       </c>
       <c r="BL6" s="1">
-        <v>-357.463000</v>
+        <v>-357.46300000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>75400.640508</v>
+        <v>75400.640507999997</v>
       </c>
       <c r="BO6" s="1">
-        <v>20.944622</v>
+        <v>20.944621999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1488.520000</v>
+        <v>1488.52</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-578.833000</v>
+        <v>-578.83299999999997</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>75411.612973</v>
+        <v>75411.612972999996</v>
       </c>
       <c r="BT6" s="1">
-        <v>20.947670</v>
+        <v>20.947669999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1621.330000</v>
+        <v>1621.33</v>
       </c>
       <c r="BV6" s="1">
-        <v>-828.048000</v>
+        <v>-828.048</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>75422.578526</v>
+        <v>75422.578525999998</v>
       </c>
       <c r="BY6" s="1">
         <v>20.950716</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1774.680000</v>
+        <v>1774.68</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1097.500000</v>
+        <v>-1097.5</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>75433.969680</v>
+        <v>75433.969679999995</v>
       </c>
       <c r="CD6" s="1">
-        <v>20.953880</v>
+        <v>20.953880000000002</v>
       </c>
       <c r="CE6" s="1">
-        <v>2191.780000</v>
+        <v>2191.7800000000002</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1748.040000</v>
+        <v>-1748.04</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>75262.063220</v>
+        <v>75262.063219999996</v>
       </c>
       <c r="B7" s="1">
         <v>20.906129</v>
       </c>
       <c r="C7" s="1">
-        <v>1149.020000</v>
+        <v>1149.02</v>
       </c>
       <c r="D7" s="1">
-        <v>-253.445000</v>
+        <v>-253.44499999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>75272.470277</v>
       </c>
       <c r="G7" s="1">
-        <v>20.909020</v>
+        <v>20.909020000000002</v>
       </c>
       <c r="H7" s="1">
-        <v>1170.050000</v>
+        <v>1170.05</v>
       </c>
       <c r="I7" s="1">
-        <v>-213.857000</v>
+        <v>-213.857</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>75283.210152</v>
       </c>
       <c r="L7" s="1">
-        <v>20.912003</v>
+        <v>20.912002999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1199.210000</v>
+        <v>1199.21</v>
       </c>
       <c r="N7" s="1">
-        <v>-150.754000</v>
+        <v>-150.75399999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>75293.753609</v>
+        <v>75293.753609000007</v>
       </c>
       <c r="Q7" s="1">
         <v>20.914932</v>
       </c>
       <c r="R7" s="1">
-        <v>1207.410000</v>
+        <v>1207.4100000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-128.879000</v>
+        <v>-128.87899999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>75303.989547</v>
+        <v>75303.989547000005</v>
       </c>
       <c r="V7" s="1">
-        <v>20.917775</v>
+        <v>20.917774999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1215.240000</v>
+        <v>1215.24</v>
       </c>
       <c r="X7" s="1">
-        <v>-108.294000</v>
+        <v>-108.294</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>75314.159022</v>
+        <v>75314.159022000007</v>
       </c>
       <c r="AA7" s="1">
-        <v>20.920600</v>
+        <v>20.9206</v>
       </c>
       <c r="AB7" s="1">
-        <v>1223.270000</v>
+        <v>1223.27</v>
       </c>
       <c r="AC7" s="1">
-        <v>-91.373400</v>
+        <v>-91.373400000000004</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>75324.408848</v>
+        <v>75324.408848000006</v>
       </c>
       <c r="AF7" s="1">
-        <v>20.923447</v>
+        <v>20.923446999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1228.200000</v>
+        <v>1228.2</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.826600</v>
+        <v>-86.826599999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>75334.958290</v>
+        <v>75334.958289999995</v>
       </c>
       <c r="AK7" s="1">
-        <v>20.926377</v>
+        <v>20.926376999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1235.560000</v>
+        <v>1235.56</v>
       </c>
       <c r="AM7" s="1">
-        <v>-90.040200</v>
+        <v>-90.040199999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>75345.652004</v>
+        <v>75345.652004000003</v>
       </c>
       <c r="AP7" s="1">
-        <v>20.929348</v>
+        <v>20.929348000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1243.610000</v>
+        <v>1243.6099999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.943000</v>
+        <v>-101.943</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>75356.676117</v>
+        <v>75356.676116999995</v>
       </c>
       <c r="AU7" s="1">
-        <v>20.932410</v>
+        <v>20.932410000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1253.620000</v>
+        <v>1253.6199999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.214000</v>
+        <v>-121.214</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>75367.399128</v>
+        <v>75367.399128000005</v>
       </c>
       <c r="AZ7" s="1">
-        <v>20.935389</v>
+        <v>20.935389000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1262.100000</v>
+        <v>1262.0999999999999</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.747000</v>
+        <v>-138.74700000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>75378.690521</v>
+        <v>75378.690520999997</v>
       </c>
       <c r="BE7" s="1">
-        <v>20.938525</v>
+        <v>20.938524999999998</v>
       </c>
       <c r="BF7" s="1">
-        <v>1302.460000</v>
+        <v>1302.46</v>
       </c>
       <c r="BG7" s="1">
-        <v>-220.869000</v>
+        <v>-220.869</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>75389.801930</v>
+        <v>75389.801930000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>20.941612</v>
+        <v>20.941611999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1372.820000</v>
+        <v>1372.82</v>
       </c>
       <c r="BL7" s="1">
-        <v>-357.439000</v>
+        <v>-357.43900000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>75400.751083</v>
+        <v>75400.751082999996</v>
       </c>
       <c r="BO7" s="1">
-        <v>20.944653</v>
+        <v>20.944652999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1488.530000</v>
+        <v>1488.53</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-578.861000</v>
+        <v>-578.86099999999999</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>75412.022172</v>
+        <v>75412.022171999997</v>
       </c>
       <c r="BT7" s="1">
-        <v>20.947784</v>
+        <v>20.947783999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1621.370000</v>
+        <v>1621.37</v>
       </c>
       <c r="BV7" s="1">
-        <v>-827.957000</v>
+        <v>-827.95699999999999</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>75423.017519</v>
+        <v>75423.017519000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>20.950838</v>
+        <v>20.950838000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1774.860000</v>
+        <v>1774.86</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1097.520000</v>
+        <v>-1097.52</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>75434.489455</v>
+        <v>75434.489455000003</v>
       </c>
       <c r="CD7" s="1">
-        <v>20.954025</v>
+        <v>20.954025000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>2192.010000</v>
+        <v>2192.0100000000002</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1747.980000</v>
+        <v>-1747.98</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>75262.324116</v>
+        <v>75262.324116000003</v>
       </c>
       <c r="B8" s="1">
-        <v>20.906201</v>
+        <v>20.906200999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1149.030000</v>
+        <v>1149.03</v>
       </c>
       <c r="D8" s="1">
-        <v>-253.579000</v>
+        <v>-253.57900000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>75272.749562</v>
+        <v>75272.749561999997</v>
       </c>
       <c r="G8" s="1">
-        <v>20.909097</v>
+        <v>20.909096999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1171.170000</v>
+        <v>1171.17</v>
       </c>
       <c r="I8" s="1">
-        <v>-214.113000</v>
+        <v>-214.113</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>75283.551894</v>
+        <v>75283.551894000004</v>
       </c>
       <c r="L8" s="1">
         <v>20.912098</v>
       </c>
       <c r="M8" s="1">
-        <v>1199.140000</v>
+        <v>1199.1400000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-150.375000</v>
+        <v>-150.375</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>75294.084938</v>
       </c>
       <c r="Q8" s="1">
-        <v>20.915024</v>
+        <v>20.915023999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1207.370000</v>
+        <v>1207.3699999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-128.917000</v>
+        <v>-128.917</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>75304.333276</v>
+        <v>75304.333276000005</v>
       </c>
       <c r="V8" s="1">
-        <v>20.917870</v>
+        <v>20.917870000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1215.340000</v>
+        <v>1215.3399999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-108.319000</v>
+        <v>-108.319</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>75314.855901</v>
+        <v>75314.855901000003</v>
       </c>
       <c r="AA8" s="1">
         <v>20.920793</v>
       </c>
       <c r="AB8" s="1">
-        <v>1223.340000</v>
+        <v>1223.3399999999999</v>
       </c>
       <c r="AC8" s="1">
-        <v>-91.343900</v>
+        <v>-91.343900000000005</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>75325.098783</v>
+        <v>75325.098782999994</v>
       </c>
       <c r="AF8" s="1">
-        <v>20.923639</v>
+        <v>20.923639000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1228.210000</v>
+        <v>1228.21</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.808900</v>
+        <v>-86.808899999999994</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>75335.304466</v>
+        <v>75335.304466000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>20.926473</v>
+        <v>20.926473000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1235.560000</v>
+        <v>1235.56</v>
       </c>
       <c r="AM8" s="1">
-        <v>-90.051500</v>
+        <v>-90.051500000000004</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>75346.034452</v>
+        <v>75346.034452000007</v>
       </c>
       <c r="AP8" s="1">
         <v>20.929454</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1243.600000</v>
+        <v>1243.5999999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.925000</v>
+        <v>-101.925</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>75357.039685</v>
+        <v>75357.039684999996</v>
       </c>
       <c r="AU8" s="1">
-        <v>20.932511</v>
+        <v>20.932511000000002</v>
       </c>
       <c r="AV8" s="1">
-        <v>1253.630000</v>
+        <v>1253.6300000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.211000</v>
+        <v>-121.211</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>75368.067704</v>
+        <v>75368.067704000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>20.935574</v>
+        <v>20.935573999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1262.110000</v>
+        <v>1262.1099999999999</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.735000</v>
+        <v>-138.73500000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>75379.132457</v>
       </c>
       <c r="BE8" s="1">
-        <v>20.938648</v>
+        <v>20.938648000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1302.470000</v>
+        <v>1302.47</v>
       </c>
       <c r="BG8" s="1">
-        <v>-220.878000</v>
+        <v>-220.87799999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>75390.238379</v>
+        <v>75390.238379000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>20.941733</v>
+        <v>20.941732999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1372.810000</v>
+        <v>1372.81</v>
       </c>
       <c r="BL8" s="1">
-        <v>-357.453000</v>
+        <v>-357.45299999999997</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>75401.146396</v>
+        <v>75401.146395999996</v>
       </c>
       <c r="BO8" s="1">
-        <v>20.944763</v>
+        <v>20.944762999999998</v>
       </c>
       <c r="BP8" s="1">
-        <v>1488.520000</v>
+        <v>1488.52</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-578.822000</v>
+        <v>-578.822</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>75412.451708</v>
+        <v>75412.451707999993</v>
       </c>
       <c r="BT8" s="1">
         <v>20.947903</v>
       </c>
       <c r="BU8" s="1">
-        <v>1621.420000</v>
+        <v>1621.42</v>
       </c>
       <c r="BV8" s="1">
-        <v>-827.953000</v>
+        <v>-827.95299999999997</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>75423.440574</v>
+        <v>75423.440573999993</v>
       </c>
       <c r="BY8" s="1">
-        <v>20.950956</v>
+        <v>20.950956000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1774.740000</v>
+        <v>1774.74</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1097.360000</v>
+        <v>-1097.3599999999999</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>75435.037534</v>
+        <v>75435.037534000003</v>
       </c>
       <c r="CD8" s="1">
-        <v>20.954177</v>
+        <v>20.954177000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>2193.320000</v>
+        <v>2193.3200000000002</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1748.900000</v>
+        <v>-1748.9</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>75262.664370</v>
+        <v>75262.664369999999</v>
       </c>
       <c r="B9" s="1">
-        <v>20.906296</v>
+        <v>20.906296000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1149.080000</v>
+        <v>1149.08</v>
       </c>
       <c r="D9" s="1">
-        <v>-253.322000</v>
+        <v>-253.322</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>75273.095733</v>
+        <v>75273.095732999995</v>
       </c>
       <c r="G9" s="1">
-        <v>20.909193</v>
+        <v>20.909192999999998</v>
       </c>
       <c r="H9" s="1">
-        <v>1170.420000</v>
+        <v>1170.42</v>
       </c>
       <c r="I9" s="1">
-        <v>-214.446000</v>
+        <v>-214.446</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>75283.902566</v>
+        <v>75283.902566000004</v>
       </c>
       <c r="L9" s="1">
-        <v>20.912195</v>
+        <v>20.912195000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1198.930000</v>
+        <v>1198.93</v>
       </c>
       <c r="N9" s="1">
-        <v>-150.593000</v>
+        <v>-150.59299999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>75294.782311</v>
+        <v>75294.782311000003</v>
       </c>
       <c r="Q9" s="1">
-        <v>20.915217</v>
+        <v>20.915216999999998</v>
       </c>
       <c r="R9" s="1">
-        <v>1207.350000</v>
+        <v>1207.3499999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-128.914000</v>
+        <v>-128.91399999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>75305.019362</v>
+        <v>75305.019362000006</v>
       </c>
       <c r="V9" s="1">
-        <v>20.918061</v>
+        <v>20.918061000000002</v>
       </c>
       <c r="W9" s="1">
-        <v>1215.420000</v>
+        <v>1215.42</v>
       </c>
       <c r="X9" s="1">
-        <v>-108.151000</v>
+        <v>-108.151</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>75315.206110</v>
+        <v>75315.206109999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>20.920891</v>
+        <v>20.920891000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1223.270000</v>
+        <v>1223.27</v>
       </c>
       <c r="AC9" s="1">
-        <v>-91.456900</v>
+        <v>-91.456900000000005</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>75325.430111</v>
+        <v>75325.430110999994</v>
       </c>
       <c r="AF9" s="1">
         <v>20.923731</v>
       </c>
       <c r="AG9" s="1">
-        <v>1228.240000</v>
+        <v>1228.24</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.830400</v>
+        <v>-86.830399999999997</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>75335.654147</v>
+        <v>75335.654146999994</v>
       </c>
       <c r="AK9" s="1">
-        <v>20.926571</v>
+        <v>20.926570999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1235.550000</v>
+        <v>1235.55</v>
       </c>
       <c r="AM9" s="1">
-        <v>-90.035900</v>
+        <v>-90.035899999999998</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>75346.709971</v>
+        <v>75346.709971000004</v>
       </c>
       <c r="AP9" s="1">
-        <v>20.929642</v>
+        <v>20.929642000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1243.620000</v>
+        <v>1243.6199999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.911000</v>
+        <v>-101.911</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>75357.719670</v>
+        <v>75357.719670000006</v>
       </c>
       <c r="AU9" s="1">
-        <v>20.932700</v>
+        <v>20.932700000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1253.630000</v>
+        <v>1253.6300000000001</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.209000</v>
+        <v>-121.209</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>75368.477398</v>
+        <v>75368.477398000003</v>
       </c>
       <c r="AZ9" s="1">
-        <v>20.935688</v>
+        <v>20.935687999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1262.120000</v>
+        <v>1262.1199999999999</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.742000</v>
+        <v>-138.74199999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>75379.491096</v>
+        <v>75379.491095999998</v>
       </c>
       <c r="BE9" s="1">
         <v>20.938748</v>
       </c>
       <c r="BF9" s="1">
-        <v>1302.460000</v>
+        <v>1302.46</v>
       </c>
       <c r="BG9" s="1">
-        <v>-220.877000</v>
+        <v>-220.87700000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>75390.636207</v>
+        <v>75390.636207000003</v>
       </c>
       <c r="BJ9" s="1">
-        <v>20.941843</v>
+        <v>20.941842999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1372.810000</v>
+        <v>1372.81</v>
       </c>
       <c r="BL9" s="1">
-        <v>-357.451000</v>
+        <v>-357.45100000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>75401.568522</v>
+        <v>75401.568522000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>20.944880</v>
+        <v>20.944880000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1488.510000</v>
+        <v>1488.51</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-578.787000</v>
+        <v>-578.78700000000003</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>75412.889179</v>
+        <v>75412.889179000005</v>
       </c>
       <c r="BT9" s="1">
-        <v>20.948025</v>
+        <v>20.948025000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1621.420000</v>
+        <v>1621.42</v>
       </c>
       <c r="BV9" s="1">
-        <v>-828.024000</v>
+        <v>-828.024</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>75423.864190</v>
+        <v>75423.864189999993</v>
       </c>
       <c r="BY9" s="1">
-        <v>20.951073</v>
+        <v>20.951073000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1774.810000</v>
+        <v>1774.81</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1097.460000</v>
+        <v>-1097.46</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>75435.568254</v>
+        <v>75435.568253999998</v>
       </c>
       <c r="CD9" s="1">
-        <v>20.954325</v>
+        <v>20.954325000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>2191.350000</v>
+        <v>2191.35</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1748.210000</v>
+        <v>-1748.21</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>75263.007602</v>
+        <v>75263.007601999998</v>
       </c>
       <c r="B10" s="1">
-        <v>20.906391</v>
+        <v>20.906390999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1148.930000</v>
+        <v>1148.93</v>
       </c>
       <c r="D10" s="1">
-        <v>-253.527000</v>
+        <v>-253.52699999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>75273.436994</v>
+        <v>75273.436994000003</v>
       </c>
       <c r="G10" s="1">
         <v>20.909288</v>
       </c>
       <c r="H10" s="1">
-        <v>1170.030000</v>
+        <v>1170.03</v>
       </c>
       <c r="I10" s="1">
-        <v>-214.166000</v>
+        <v>-214.166</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>75284.597461</v>
+        <v>75284.597460999998</v>
       </c>
       <c r="L10" s="1">
         <v>20.912388</v>
       </c>
       <c r="M10" s="1">
-        <v>1199.050000</v>
+        <v>1199.05</v>
       </c>
       <c r="N10" s="1">
-        <v>-150.608000</v>
+        <v>-150.608</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>75295.127527</v>
+        <v>75295.127527000004</v>
       </c>
       <c r="Q10" s="1">
-        <v>20.915313</v>
+        <v>20.915313000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1207.350000</v>
+        <v>1207.3499999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-128.890000</v>
+        <v>-128.88999999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>75305.360489</v>
+        <v>75305.360488999999</v>
       </c>
       <c r="V10" s="1">
         <v>20.918156</v>
       </c>
       <c r="W10" s="1">
-        <v>1215.410000</v>
+        <v>1215.4100000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-108.269000</v>
+        <v>-108.26900000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>75315.554764</v>
@@ -2612,375 +3028,375 @@
         <v>20.920987</v>
       </c>
       <c r="AB10" s="1">
-        <v>1223.290000</v>
+        <v>1223.29</v>
       </c>
       <c r="AC10" s="1">
-        <v>-91.378900</v>
+        <v>-91.378900000000002</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>75325.789215</v>
+        <v>75325.789214999997</v>
       </c>
       <c r="AF10" s="1">
-        <v>20.923830</v>
+        <v>20.923829999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1228.210000</v>
+        <v>1228.21</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.818100</v>
+        <v>-86.818100000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>75336.321280</v>
+        <v>75336.321280000004</v>
       </c>
       <c r="AK10" s="1">
-        <v>20.926756</v>
+        <v>20.926756000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1235.540000</v>
+        <v>1235.54</v>
       </c>
       <c r="AM10" s="1">
-        <v>-90.053900</v>
+        <v>-90.053899999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>75347.115698</v>
+        <v>75347.115697999994</v>
       </c>
       <c r="AP10" s="1">
-        <v>20.929754</v>
+        <v>20.929753999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1243.630000</v>
+        <v>1243.6300000000001</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.927000</v>
+        <v>-101.92700000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>75358.169076</v>
+        <v>75358.169076000006</v>
       </c>
       <c r="AU10" s="1">
-        <v>20.932825</v>
+        <v>20.932825000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1253.620000</v>
+        <v>1253.6199999999999</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.208000</v>
+        <v>-121.208</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>75368.855846</v>
+        <v>75368.855846000006</v>
       </c>
       <c r="AZ10" s="1">
         <v>20.935793</v>
       </c>
       <c r="BA10" s="1">
-        <v>1262.110000</v>
+        <v>1262.1099999999999</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.745000</v>
+        <v>-138.745</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>75379.853175</v>
+        <v>75379.853174999997</v>
       </c>
       <c r="BE10" s="1">
         <v>20.938848</v>
       </c>
       <c r="BF10" s="1">
-        <v>1302.480000</v>
+        <v>1302.48</v>
       </c>
       <c r="BG10" s="1">
-        <v>-220.894000</v>
+        <v>-220.89400000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>75391.012633</v>
+        <v>75391.012633000006</v>
       </c>
       <c r="BJ10" s="1">
         <v>20.941948</v>
       </c>
       <c r="BK10" s="1">
-        <v>1372.820000</v>
+        <v>1372.82</v>
       </c>
       <c r="BL10" s="1">
-        <v>-357.435000</v>
+        <v>-357.435</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>75402.000042</v>
       </c>
       <c r="BO10" s="1">
-        <v>20.945000</v>
+        <v>20.945</v>
       </c>
       <c r="BP10" s="1">
-        <v>1488.510000</v>
+        <v>1488.51</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-578.822000</v>
+        <v>-578.822</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>75413.281515</v>
+        <v>75413.281514999995</v>
       </c>
       <c r="BT10" s="1">
         <v>20.948134</v>
       </c>
       <c r="BU10" s="1">
-        <v>1621.360000</v>
+        <v>1621.36</v>
       </c>
       <c r="BV10" s="1">
-        <v>-827.962000</v>
+        <v>-827.96199999999999</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>75424.286254</v>
+        <v>75424.286254000006</v>
       </c>
       <c r="BY10" s="1">
-        <v>20.951191</v>
+        <v>20.951191000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1774.820000</v>
+        <v>1774.82</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1097.490000</v>
+        <v>-1097.49</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>75436.085085</v>
+        <v>75436.085084999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>20.954468</v>
+        <v>20.954467999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>2191.770000</v>
+        <v>2191.77</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1748.230000</v>
+        <v>-1748.23</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>75263.690626</v>
+        <v>75263.690625999996</v>
       </c>
       <c r="B11" s="1">
-        <v>20.906581</v>
+        <v>20.906580999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1148.990000</v>
+        <v>1148.99</v>
       </c>
       <c r="D11" s="1">
-        <v>-253.313000</v>
+        <v>-253.31299999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>75274.127412</v>
+        <v>75274.127412000002</v>
       </c>
       <c r="G11" s="1">
-        <v>20.909480</v>
+        <v>20.909479999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1170.060000</v>
+        <v>1170.06</v>
       </c>
       <c r="I11" s="1">
-        <v>-214.350000</v>
+        <v>-214.35</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>75284.945652</v>
+        <v>75284.945651999995</v>
       </c>
       <c r="L11" s="1">
         <v>20.912485</v>
       </c>
       <c r="M11" s="1">
-        <v>1198.810000</v>
+        <v>1198.81</v>
       </c>
       <c r="N11" s="1">
-        <v>-150.567000</v>
+        <v>-150.56700000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>75295.476712</v>
+        <v>75295.476712000003</v>
       </c>
       <c r="Q11" s="1">
-        <v>20.915410</v>
+        <v>20.915410000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1207.390000</v>
+        <v>1207.3900000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-128.909000</v>
+        <v>-128.90899999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>75305.706201</v>
+        <v>75305.706200999994</v>
       </c>
       <c r="V11" s="1">
-        <v>20.918252</v>
+        <v>20.918251999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1215.290000</v>
+        <v>1215.29</v>
       </c>
       <c r="X11" s="1">
-        <v>-108.218000</v>
+        <v>-108.218</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>75316.217419</v>
+        <v>75316.217418999993</v>
       </c>
       <c r="AA11" s="1">
-        <v>20.921172</v>
+        <v>20.921171999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1223.310000</v>
+        <v>1223.31</v>
       </c>
       <c r="AC11" s="1">
-        <v>-91.421400</v>
+        <v>-91.421400000000006</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>75326.569421</v>
+        <v>75326.569420999993</v>
       </c>
       <c r="AF11" s="1">
-        <v>20.924047</v>
+        <v>20.924047000000002</v>
       </c>
       <c r="AG11" s="1">
-        <v>1228.240000</v>
+        <v>1228.24</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.858500</v>
+        <v>-86.858500000000006</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>75336.702688</v>
+        <v>75336.702688000005</v>
       </c>
       <c r="AK11" s="1">
         <v>20.926862</v>
       </c>
       <c r="AL11" s="1">
-        <v>1235.550000</v>
+        <v>1235.55</v>
       </c>
       <c r="AM11" s="1">
-        <v>-90.068900</v>
+        <v>-90.068899999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>75347.506546</v>
+        <v>75347.506546000004</v>
       </c>
       <c r="AP11" s="1">
-        <v>20.929863</v>
+        <v>20.929863000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1243.620000</v>
+        <v>1243.6199999999999</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.917000</v>
+        <v>-101.917</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>75358.536613</v>
+        <v>75358.536613000004</v>
       </c>
       <c r="AU11" s="1">
-        <v>20.932927</v>
+        <v>20.932926999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1253.630000</v>
+        <v>1253.6300000000001</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.220000</v>
+        <v>-121.22</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>75369.235285</v>
+        <v>75369.235285000002</v>
       </c>
       <c r="AZ11" s="1">
-        <v>20.935899</v>
+        <v>20.935898999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1262.120000</v>
+        <v>1262.1199999999999</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.741000</v>
+        <v>-138.74100000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>75380.279432</v>
+        <v>75380.279431999996</v>
       </c>
       <c r="BE11" s="1">
-        <v>20.938967</v>
+        <v>20.938967000000002</v>
       </c>
       <c r="BF11" s="1">
-        <v>1302.470000</v>
+        <v>1302.47</v>
       </c>
       <c r="BG11" s="1">
-        <v>-220.873000</v>
+        <v>-220.87299999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>75391.431256</v>
+        <v>75391.431255999996</v>
       </c>
       <c r="BJ11" s="1">
-        <v>20.942064</v>
+        <v>20.942063999999998</v>
       </c>
       <c r="BK11" s="1">
-        <v>1372.820000</v>
+        <v>1372.82</v>
       </c>
       <c r="BL11" s="1">
-        <v>-357.446000</v>
+        <v>-357.44600000000003</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>75402.385897</v>
@@ -2989,135 +3405,135 @@
         <v>20.945107</v>
       </c>
       <c r="BP11" s="1">
-        <v>1488.500000</v>
+        <v>1488.5</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-578.813000</v>
+        <v>-578.81299999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>75413.692999</v>
+        <v>75413.692999000006</v>
       </c>
       <c r="BT11" s="1">
         <v>20.948248</v>
       </c>
       <c r="BU11" s="1">
-        <v>1621.400000</v>
+        <v>1621.4</v>
       </c>
       <c r="BV11" s="1">
-        <v>-828.013000</v>
+        <v>-828.01300000000003</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>75424.702428</v>
+        <v>75424.702428000004</v>
       </c>
       <c r="BY11" s="1">
-        <v>20.951306</v>
+        <v>20.951305999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1774.680000</v>
+        <v>1774.68</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1097.540000</v>
+        <v>-1097.54</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>75436.640108</v>
+        <v>75436.640108000007</v>
       </c>
       <c r="CD11" s="1">
-        <v>20.954622</v>
+        <v>20.954622000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>2193.100000</v>
+        <v>2193.1</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1748.420000</v>
+        <v>-1748.42</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>75264.031840</v>
+        <v>75264.031839999996</v>
       </c>
       <c r="B12" s="1">
-        <v>20.906676</v>
+        <v>20.906676000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1149.010000</v>
+        <v>1149.01</v>
       </c>
       <c r="D12" s="1">
-        <v>-253.521000</v>
+        <v>-253.52099999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>75274.473619</v>
+        <v>75274.473618999997</v>
       </c>
       <c r="G12" s="1">
-        <v>20.909576</v>
+        <v>20.909576000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1170.220000</v>
+        <v>1170.22</v>
       </c>
       <c r="I12" s="1">
-        <v>-214.395000</v>
+        <v>-214.39500000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>75285.294377</v>
+        <v>75285.294376999998</v>
       </c>
       <c r="L12" s="1">
         <v>20.912582</v>
       </c>
       <c r="M12" s="1">
-        <v>1198.890000</v>
+        <v>1198.8900000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-150.210000</v>
+        <v>-150.21</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>75296.143369</v>
+        <v>75296.143368999998</v>
       </c>
       <c r="Q12" s="1">
         <v>20.915595</v>
       </c>
       <c r="R12" s="1">
-        <v>1207.380000</v>
+        <v>1207.3800000000001</v>
       </c>
       <c r="S12" s="1">
-        <v>-128.942000</v>
+        <v>-128.94200000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>75306.360456</v>
+        <v>75306.360455999995</v>
       </c>
       <c r="V12" s="1">
         <v>20.918433</v>
       </c>
       <c r="W12" s="1">
-        <v>1215.240000</v>
+        <v>1215.24</v>
       </c>
       <c r="X12" s="1">
-        <v>-108.379000</v>
+        <v>-108.379</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>75316.598843</v>
@@ -3126,345 +3542,345 @@
         <v>20.921277</v>
       </c>
       <c r="AB12" s="1">
-        <v>1223.320000</v>
+        <v>1223.32</v>
       </c>
       <c r="AC12" s="1">
-        <v>-91.362100</v>
+        <v>-91.362099999999998</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>75326.833295</v>
+        <v>75326.833295000004</v>
       </c>
       <c r="AF12" s="1">
-        <v>20.924120</v>
+        <v>20.924119999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>1228.220000</v>
+        <v>1228.22</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.757900</v>
+        <v>-86.757900000000006</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>75337.046912</v>
+        <v>75337.046912000005</v>
       </c>
       <c r="AK12" s="1">
-        <v>20.926957</v>
+        <v>20.926957000000002</v>
       </c>
       <c r="AL12" s="1">
-        <v>1235.550000</v>
+        <v>1235.55</v>
       </c>
       <c r="AM12" s="1">
-        <v>-90.038600</v>
+        <v>-90.038600000000002</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>75347.865649</v>
+        <v>75347.865648999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>20.929963</v>
+        <v>20.929963000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1243.580000</v>
+        <v>1243.58</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.930000</v>
+        <v>-101.93</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>75358.899156</v>
+        <v>75358.899155999999</v>
       </c>
       <c r="AU12" s="1">
         <v>20.933028</v>
       </c>
       <c r="AV12" s="1">
-        <v>1253.620000</v>
+        <v>1253.6199999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.218000</v>
+        <v>-121.218</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>75369.668293</v>
+        <v>75369.668292999995</v>
       </c>
       <c r="AZ12" s="1">
-        <v>20.936019</v>
+        <v>20.936019000000002</v>
       </c>
       <c r="BA12" s="1">
-        <v>1262.090000</v>
+        <v>1262.0899999999999</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.712000</v>
+        <v>-138.71199999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>75380.577302</v>
+        <v>75380.577302000005</v>
       </c>
       <c r="BE12" s="1">
-        <v>20.939049</v>
+        <v>20.939049000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1302.470000</v>
+        <v>1302.47</v>
       </c>
       <c r="BG12" s="1">
-        <v>-220.894000</v>
+        <v>-220.89400000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>75391.787383</v>
+        <v>75391.787383000003</v>
       </c>
       <c r="BJ12" s="1">
-        <v>20.942163</v>
+        <v>20.942163000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1372.820000</v>
+        <v>1372.82</v>
       </c>
       <c r="BL12" s="1">
-        <v>-357.452000</v>
+        <v>-357.452</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>75402.783723</v>
       </c>
       <c r="BO12" s="1">
-        <v>20.945218</v>
+        <v>20.945218000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1488.510000</v>
+        <v>1488.51</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-578.834000</v>
+        <v>-578.83399999999995</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>75414.108377</v>
+        <v>75414.108376999997</v>
       </c>
       <c r="BT12" s="1">
-        <v>20.948363</v>
+        <v>20.948363000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1621.420000</v>
+        <v>1621.42</v>
       </c>
       <c r="BV12" s="1">
-        <v>-827.951000</v>
+        <v>-827.95100000000002</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>75425.156763</v>
+        <v>75425.156763000006</v>
       </c>
       <c r="BY12" s="1">
         <v>20.951432</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1774.620000</v>
+        <v>1774.62</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1097.650000</v>
+        <v>-1097.6500000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>75437.168347</v>
+        <v>75437.168346999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>20.954769</v>
+        <v>20.954768999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>2191.180000</v>
+        <v>2191.1799999999998</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1748.400000</v>
+        <v>-1748.4</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>75264.373088</v>
+        <v>75264.373087999993</v>
       </c>
       <c r="B13" s="1">
-        <v>20.906770</v>
+        <v>20.906770000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>1148.770000</v>
+        <v>1148.77</v>
       </c>
       <c r="D13" s="1">
-        <v>-253.559000</v>
+        <v>-253.559</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>75274.821810</v>
+        <v>75274.821809999994</v>
       </c>
       <c r="G13" s="1">
-        <v>20.909673</v>
+        <v>20.909673000000002</v>
       </c>
       <c r="H13" s="1">
-        <v>1169.970000</v>
+        <v>1169.97</v>
       </c>
       <c r="I13" s="1">
-        <v>-213.819000</v>
+        <v>-213.81899999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>75285.958483</v>
+        <v>75285.958482999995</v>
       </c>
       <c r="L13" s="1">
-        <v>20.912766</v>
+        <v>20.912766000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1198.830000</v>
+        <v>1198.83</v>
       </c>
       <c r="N13" s="1">
-        <v>-150.457000</v>
+        <v>-150.45699999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>75296.522773</v>
+        <v>75296.522773000004</v>
       </c>
       <c r="Q13" s="1">
-        <v>20.915701</v>
+        <v>20.915700999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1207.350000</v>
+        <v>1207.3499999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-128.937000</v>
+        <v>-128.93700000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>75306.735897</v>
+        <v>75306.735897000006</v>
       </c>
       <c r="V13" s="1">
-        <v>20.918538</v>
+        <v>20.918538000000002</v>
       </c>
       <c r="W13" s="1">
-        <v>1215.370000</v>
+        <v>1215.3699999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-108.228000</v>
+        <v>-108.22799999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>75316.947034</v>
+        <v>75316.947033999997</v>
       </c>
       <c r="AA13" s="1">
         <v>20.921374</v>
       </c>
       <c r="AB13" s="1">
-        <v>1223.370000</v>
+        <v>1223.3699999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-91.354500</v>
+        <v>-91.354500000000002</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>75327.194877</v>
+        <v>75327.194877000002</v>
       </c>
       <c r="AF13" s="1">
-        <v>20.924221</v>
+        <v>20.924220999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1228.260000</v>
+        <v>1228.26</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.872500</v>
+        <v>-86.872500000000002</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>75337.398088</v>
+        <v>75337.398088000002</v>
       </c>
       <c r="AK13" s="1">
-        <v>20.927055</v>
+        <v>20.927054999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1235.550000</v>
+        <v>1235.55</v>
       </c>
       <c r="AM13" s="1">
-        <v>-90.038900</v>
+        <v>-90.038899999999998</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>75348.288737</v>
+        <v>75348.288736999995</v>
       </c>
       <c r="AP13" s="1">
-        <v>20.930080</v>
+        <v>20.93008</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1243.580000</v>
+        <v>1243.58</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.913000</v>
+        <v>-101.913</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>75359.331171</v>
+        <v>75359.331170999998</v>
       </c>
       <c r="AU13" s="1">
-        <v>20.933148</v>
+        <v>20.933147999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1253.640000</v>
+        <v>1253.6400000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.217000</v>
+        <v>-121.217</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>75369.951012</v>
+        <v>75369.951012000005</v>
       </c>
       <c r="AZ13" s="1">
-        <v>20.936098</v>
+        <v>20.936098000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1262.130000</v>
+        <v>1262.1300000000001</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.729000</v>
+        <v>-138.72900000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>75380.937435</v>
@@ -3473,724 +3889,724 @@
         <v>20.939149</v>
       </c>
       <c r="BF13" s="1">
-        <v>1302.440000</v>
+        <v>1302.44</v>
       </c>
       <c r="BG13" s="1">
-        <v>-220.883000</v>
+        <v>-220.88300000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>75392.165831</v>
+        <v>75392.165831000006</v>
       </c>
       <c r="BJ13" s="1">
-        <v>20.942268</v>
+        <v>20.942267999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1372.860000</v>
+        <v>1372.86</v>
       </c>
       <c r="BL13" s="1">
-        <v>-357.477000</v>
+        <v>-357.47699999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>75403.206778</v>
+        <v>75403.206778000007</v>
       </c>
       <c r="BO13" s="1">
         <v>20.945335</v>
       </c>
       <c r="BP13" s="1">
-        <v>1488.500000</v>
+        <v>1488.5</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-578.861000</v>
+        <v>-578.86099999999999</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>75414.534409</v>
       </c>
       <c r="BT13" s="1">
-        <v>20.948482</v>
+        <v>20.948481999999998</v>
       </c>
       <c r="BU13" s="1">
-        <v>1621.360000</v>
+        <v>1621.36</v>
       </c>
       <c r="BV13" s="1">
-        <v>-828.003000</v>
+        <v>-828.00300000000004</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>75425.614042</v>
+        <v>75425.614042000001</v>
       </c>
       <c r="BY13" s="1">
         <v>20.951559</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1774.800000</v>
+        <v>1774.8</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1097.580000</v>
+        <v>-1097.58</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>75437.685689</v>
+        <v>75437.685689000005</v>
       </c>
       <c r="CD13" s="1">
-        <v>20.954913</v>
+        <v>20.954913000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>2191.500000</v>
+        <v>2191.5</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1750.580000</v>
+        <v>-1750.58</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>75265.027807</v>
+        <v>75265.027807000006</v>
       </c>
       <c r="B14" s="1">
         <v>20.906952</v>
       </c>
       <c r="C14" s="1">
-        <v>1149.000000</v>
+        <v>1149</v>
       </c>
       <c r="D14" s="1">
-        <v>-253.464000</v>
+        <v>-253.464</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>75275.491446</v>
       </c>
       <c r="G14" s="1">
-        <v>20.909859</v>
+        <v>20.909859000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1170.070000</v>
+        <v>1170.07</v>
       </c>
       <c r="I14" s="1">
-        <v>-213.645000</v>
+        <v>-213.64500000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>75286.328995</v>
+        <v>75286.328995000003</v>
       </c>
       <c r="L14" s="1">
-        <v>20.912869</v>
+        <v>20.912869000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1199.210000</v>
+        <v>1199.21</v>
       </c>
       <c r="N14" s="1">
-        <v>-150.624000</v>
+        <v>-150.624</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>75296.875429</v>
+        <v>75296.875429000007</v>
       </c>
       <c r="Q14" s="1">
         <v>20.915799</v>
       </c>
       <c r="R14" s="1">
-        <v>1207.350000</v>
+        <v>1207.3499999999999</v>
       </c>
       <c r="S14" s="1">
-        <v>-128.993000</v>
+        <v>-128.99299999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>75307.081111</v>
+        <v>75307.081111000007</v>
       </c>
       <c r="V14" s="1">
-        <v>20.918634</v>
+        <v>20.918634000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1215.300000</v>
+        <v>1215.3</v>
       </c>
       <c r="X14" s="1">
-        <v>-108.221000</v>
+        <v>-108.221</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>75317.295722</v>
+        <v>75317.295721999995</v>
       </c>
       <c r="AA14" s="1">
         <v>20.921471</v>
       </c>
       <c r="AB14" s="1">
-        <v>1223.270000</v>
+        <v>1223.27</v>
       </c>
       <c r="AC14" s="1">
-        <v>-91.344500</v>
+        <v>-91.344499999999996</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>75327.623954</v>
+        <v>75327.623953999995</v>
       </c>
       <c r="AF14" s="1">
-        <v>20.924340</v>
+        <v>20.924340000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1228.240000</v>
+        <v>1228.24</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.796600</v>
+        <v>-86.796599999999998</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>75337.837076</v>
+        <v>75337.837075999996</v>
       </c>
       <c r="AK14" s="1">
         <v>20.927177</v>
       </c>
       <c r="AL14" s="1">
-        <v>1235.550000</v>
+        <v>1235.55</v>
       </c>
       <c r="AM14" s="1">
-        <v>-90.042000</v>
+        <v>-90.042000000000002</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>75348.584881</v>
+        <v>75348.584881000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>20.930162</v>
+        <v>20.930161999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1243.630000</v>
+        <v>1243.6300000000001</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.909000</v>
+        <v>-101.90900000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>75359.629267</v>
+        <v>75359.629266999997</v>
       </c>
       <c r="AU14" s="1">
-        <v>20.933230</v>
+        <v>20.933229999999998</v>
       </c>
       <c r="AV14" s="1">
-        <v>1253.630000</v>
+        <v>1253.6300000000001</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.215000</v>
+        <v>-121.215</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>75370.313094</v>
+        <v>75370.313093999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>20.936198</v>
+        <v>20.936198000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1262.100000</v>
+        <v>1262.0999999999999</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.722000</v>
+        <v>-138.72200000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>75381.299510</v>
+        <v>75381.299509999997</v>
       </c>
       <c r="BE14" s="1">
-        <v>20.939250</v>
+        <v>20.939250000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1302.460000</v>
+        <v>1302.46</v>
       </c>
       <c r="BG14" s="1">
-        <v>-220.887000</v>
+        <v>-220.887</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>75392.544954</v>
+        <v>75392.544953999997</v>
       </c>
       <c r="BJ14" s="1">
-        <v>20.942374</v>
+        <v>20.942374000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1372.790000</v>
+        <v>1372.79</v>
       </c>
       <c r="BL14" s="1">
-        <v>-357.475000</v>
+        <v>-357.47500000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>75404.008839</v>
+        <v>75404.008839000002</v>
       </c>
       <c r="BO14" s="1">
-        <v>20.945558</v>
+        <v>20.945557999999998</v>
       </c>
       <c r="BP14" s="1">
-        <v>1488.520000</v>
+        <v>1488.52</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-578.828000</v>
+        <v>-578.82799999999997</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>75414.941629</v>
+        <v>75414.941628999994</v>
       </c>
       <c r="BT14" s="1">
-        <v>20.948595</v>
+        <v>20.948595000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1621.380000</v>
+        <v>1621.38</v>
       </c>
       <c r="BV14" s="1">
-        <v>-828.014000</v>
+        <v>-828.01400000000001</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>75426.028698</v>
+        <v>75426.028697999995</v>
       </c>
       <c r="BY14" s="1">
-        <v>20.951675</v>
+        <v>20.951675000000002</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1774.610000</v>
+        <v>1774.61</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1097.280000</v>
+        <v>-1097.28</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>75438.206971</v>
+        <v>75438.206971000007</v>
       </c>
       <c r="CD14" s="1">
         <v>20.955057</v>
       </c>
       <c r="CE14" s="1">
-        <v>2193.460000</v>
+        <v>2193.46</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1749.580000</v>
+        <v>-1749.58</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>75265.396367</v>
+        <v>75265.396366999994</v>
       </c>
       <c r="B15" s="1">
         <v>20.907055</v>
       </c>
       <c r="C15" s="1">
-        <v>1149.070000</v>
+        <v>1149.07</v>
       </c>
       <c r="D15" s="1">
-        <v>-253.395000</v>
+        <v>-253.39500000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>75275.857494</v>
+        <v>75275.857493999996</v>
       </c>
       <c r="G15" s="1">
-        <v>20.909960</v>
+        <v>20.909960000000002</v>
       </c>
       <c r="H15" s="1">
-        <v>1170.080000</v>
+        <v>1170.08</v>
       </c>
       <c r="I15" s="1">
-        <v>-214.626000</v>
+        <v>-214.626</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>75286.676196</v>
       </c>
       <c r="L15" s="1">
-        <v>20.912966</v>
+        <v>20.912966000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1198.890000</v>
+        <v>1198.8900000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-150.428000</v>
+        <v>-150.428</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>75297.223620</v>
+        <v>75297.223620000004</v>
       </c>
       <c r="Q15" s="1">
-        <v>20.915895</v>
+        <v>20.915894999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>1207.350000</v>
+        <v>1207.3499999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-128.841000</v>
+        <v>-128.84100000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>75307.428807</v>
+        <v>75307.428807000004</v>
       </c>
       <c r="V15" s="1">
-        <v>20.918730</v>
+        <v>20.91873</v>
       </c>
       <c r="W15" s="1">
-        <v>1215.220000</v>
+        <v>1215.22</v>
       </c>
       <c r="X15" s="1">
-        <v>-108.322000</v>
+        <v>-108.322</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>75317.727241</v>
+        <v>75317.727241000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>20.921591</v>
+        <v>20.921590999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1223.360000</v>
+        <v>1223.3599999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-91.443900</v>
+        <v>-91.443899999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>75327.899693</v>
+        <v>75327.899692999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>20.924417</v>
+        <v>20.924416999999998</v>
       </c>
       <c r="AG15" s="1">
-        <v>1228.190000</v>
+        <v>1228.19</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.846800</v>
+        <v>-86.846800000000002</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>75338.108387</v>
       </c>
       <c r="AK15" s="1">
-        <v>20.927252</v>
+        <v>20.927251999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1235.550000</v>
+        <v>1235.55</v>
       </c>
       <c r="AM15" s="1">
-        <v>-90.064000</v>
+        <v>-90.063999999999993</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>75348.944448</v>
+        <v>75348.944447999995</v>
       </c>
       <c r="AP15" s="1">
-        <v>20.930262</v>
+        <v>20.930261999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1243.620000</v>
+        <v>1243.6199999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.895000</v>
+        <v>-101.895</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>75359.991346</v>
+        <v>75359.991345999995</v>
       </c>
       <c r="AU15" s="1">
-        <v>20.933331</v>
+        <v>20.933330999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1253.630000</v>
+        <v>1253.6300000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.203000</v>
+        <v>-121.203</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>75370.670211</v>
+        <v>75370.670211000004</v>
       </c>
       <c r="AZ15" s="1">
         <v>20.936297</v>
       </c>
       <c r="BA15" s="1">
-        <v>1262.110000</v>
+        <v>1262.1099999999999</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.717000</v>
+        <v>-138.71700000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>75382.022645</v>
+        <v>75382.022645000005</v>
       </c>
       <c r="BE15" s="1">
-        <v>20.939451</v>
+        <v>20.939450999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1302.460000</v>
+        <v>1302.46</v>
       </c>
       <c r="BG15" s="1">
-        <v>-220.861000</v>
+        <v>-220.86099999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>75393.375574</v>
+        <v>75393.375574000005</v>
       </c>
       <c r="BJ15" s="1">
-        <v>20.942604</v>
+        <v>20.942603999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1372.830000</v>
+        <v>1372.83</v>
       </c>
       <c r="BL15" s="1">
-        <v>-357.423000</v>
+        <v>-357.423</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>75404.439367</v>
+        <v>75404.439366999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>20.945678</v>
+        <v>20.945678000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1488.530000</v>
+        <v>1488.53</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-578.785000</v>
+        <v>-578.78499999999997</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>75415.357768</v>
+        <v>75415.357768000002</v>
       </c>
       <c r="BT15" s="1">
-        <v>20.948710</v>
+        <v>20.948709999999998</v>
       </c>
       <c r="BU15" s="1">
-        <v>1621.360000</v>
+        <v>1621.36</v>
       </c>
       <c r="BV15" s="1">
-        <v>-828.052000</v>
+        <v>-828.05200000000002</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>75426.473609</v>
+        <v>75426.473608999993</v>
       </c>
       <c r="BY15" s="1">
         <v>20.951798</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1774.740000</v>
+        <v>1774.74</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1097.610000</v>
+        <v>-1097.6099999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>75439.032809</v>
+        <v>75439.032808999997</v>
       </c>
       <c r="CD15" s="1">
-        <v>20.955287</v>
+        <v>20.955286999999998</v>
       </c>
       <c r="CE15" s="1">
-        <v>2192.090000</v>
+        <v>2192.09</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1747.760000</v>
+        <v>-1747.76</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>75265.742543</v>
       </c>
       <c r="B16" s="1">
-        <v>20.907151</v>
+        <v>20.907150999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1148.870000</v>
+        <v>1148.8699999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-253.671000</v>
+        <v>-253.67099999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>75276.201217</v>
+        <v>75276.201216999994</v>
       </c>
       <c r="G16" s="1">
-        <v>20.910056</v>
+        <v>20.910056000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1170.530000</v>
+        <v>1170.53</v>
       </c>
       <c r="I16" s="1">
-        <v>-214.396000</v>
+        <v>-214.39599999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>75287.023395</v>
+        <v>75287.023394999997</v>
       </c>
       <c r="L16" s="1">
         <v>20.913062</v>
       </c>
       <c r="M16" s="1">
-        <v>1199.040000</v>
+        <v>1199.04</v>
       </c>
       <c r="N16" s="1">
-        <v>-150.396000</v>
+        <v>-150.39599999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>75297.648728</v>
       </c>
       <c r="Q16" s="1">
-        <v>20.916014</v>
+        <v>20.916014000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1207.340000</v>
+        <v>1207.3399999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-128.891000</v>
+        <v>-128.89099999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>75307.851897</v>
       </c>
       <c r="V16" s="1">
-        <v>20.918848</v>
+        <v>20.918848000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1215.320000</v>
+        <v>1215.32</v>
       </c>
       <c r="X16" s="1">
-        <v>-108.308000</v>
+        <v>-108.30800000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>75318.003513</v>
+        <v>75318.003513000003</v>
       </c>
       <c r="AA16" s="1">
         <v>20.921668</v>
       </c>
       <c r="AB16" s="1">
-        <v>1223.340000</v>
+        <v>1223.3399999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-91.431900</v>
+        <v>-91.431899999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>75328.241931</v>
+        <v>75328.241930999997</v>
       </c>
       <c r="AF16" s="1">
         <v>20.924512</v>
       </c>
       <c r="AG16" s="1">
-        <v>1228.220000</v>
+        <v>1228.22</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.873300</v>
+        <v>-86.8733</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>75338.456078</v>
+        <v>75338.456078000003</v>
       </c>
       <c r="AK16" s="1">
         <v>20.927349</v>
       </c>
       <c r="AL16" s="1">
-        <v>1235.570000</v>
+        <v>1235.57</v>
       </c>
       <c r="AM16" s="1">
-        <v>-90.065700</v>
+        <v>-90.065700000000007</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>75349.305536</v>
@@ -4199,88 +4615,88 @@
         <v>20.930363</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1243.600000</v>
+        <v>1243.5999999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.922000</v>
+        <v>-101.922</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>75360.555298</v>
+        <v>75360.555298000007</v>
       </c>
       <c r="AU16" s="1">
-        <v>20.933488</v>
+        <v>20.933488000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1253.660000</v>
+        <v>1253.6600000000001</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.232000</v>
+        <v>-121.232</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>75371.388946</v>
+        <v>75371.388946000006</v>
       </c>
       <c r="AZ16" s="1">
-        <v>20.936497</v>
+        <v>20.936496999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1262.100000</v>
+        <v>1262.0999999999999</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.746000</v>
+        <v>-138.74600000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>75382.412508</v>
+        <v>75382.412507999994</v>
       </c>
       <c r="BE16" s="1">
-        <v>20.939559</v>
+        <v>20.939558999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1302.460000</v>
+        <v>1302.46</v>
       </c>
       <c r="BG16" s="1">
-        <v>-220.875000</v>
+        <v>-220.875</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>75393.664245</v>
+        <v>75393.664245000007</v>
       </c>
       <c r="BJ16" s="1">
-        <v>20.942685</v>
+        <v>20.942685000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1372.790000</v>
+        <v>1372.79</v>
       </c>
       <c r="BL16" s="1">
-        <v>-357.423000</v>
+        <v>-357.423</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>75404.835639</v>
+        <v>75404.835638999997</v>
       </c>
       <c r="BO16" s="1">
         <v>20.945788</v>
       </c>
       <c r="BP16" s="1">
-        <v>1488.490000</v>
+        <v>1488.49</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-578.789000</v>
+        <v>-578.78899999999999</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>75416.082423</v>
@@ -4289,1088 +4705,1088 @@
         <v>20.948912</v>
       </c>
       <c r="BU16" s="1">
-        <v>1621.410000</v>
+        <v>1621.41</v>
       </c>
       <c r="BV16" s="1">
-        <v>-828.073000</v>
+        <v>-828.07299999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>75426.925147</v>
+        <v>75426.925147000002</v>
       </c>
       <c r="BY16" s="1">
-        <v>20.951924</v>
+        <v>20.951924000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1774.770000</v>
+        <v>1774.77</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1097.350000</v>
+        <v>-1097.3499999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>75439.241129</v>
+        <v>75439.241129000002</v>
       </c>
       <c r="CD16" s="1">
-        <v>20.955345</v>
+        <v>20.955345000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>2190.760000</v>
+        <v>2190.7600000000002</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1749.240000</v>
+        <v>-1749.24</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>75266.081311</v>
+        <v>75266.081311000002</v>
       </c>
       <c r="B17" s="1">
         <v>20.907245</v>
       </c>
       <c r="C17" s="1">
-        <v>1149.150000</v>
+        <v>1149.1500000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-253.276000</v>
+        <v>-253.27600000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>75276.545905</v>
+        <v>75276.545905000006</v>
       </c>
       <c r="G17" s="1">
         <v>20.910152</v>
       </c>
       <c r="H17" s="1">
-        <v>1169.950000</v>
+        <v>1169.95</v>
       </c>
       <c r="I17" s="1">
-        <v>-214.117000</v>
+        <v>-214.11699999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>75287.455410</v>
+        <v>75287.455409999995</v>
       </c>
       <c r="L17" s="1">
-        <v>20.913182</v>
+        <v>20.913181999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1199.060000</v>
+        <v>1199.06</v>
       </c>
       <c r="N17" s="1">
-        <v>-150.352000</v>
+        <v>-150.352</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>75297.924963</v>
+        <v>75297.924962999998</v>
       </c>
       <c r="Q17" s="1">
-        <v>20.916090</v>
+        <v>20.916090000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1207.400000</v>
+        <v>1207.4000000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-128.855000</v>
+        <v>-128.85499999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>75308.133670</v>
+        <v>75308.133669999996</v>
       </c>
       <c r="V17" s="1">
-        <v>20.918926</v>
+        <v>20.918925999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1215.220000</v>
+        <v>1215.22</v>
       </c>
       <c r="X17" s="1">
-        <v>-108.201000</v>
+        <v>-108.20099999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>75318.351434</v>
+        <v>75318.351433999997</v>
       </c>
       <c r="AA17" s="1">
         <v>20.921764</v>
       </c>
       <c r="AB17" s="1">
-        <v>1223.340000</v>
+        <v>1223.3399999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-91.334700</v>
+        <v>-91.334699999999998</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>75328.586155</v>
+        <v>75328.586154999997</v>
       </c>
       <c r="AF17" s="1">
-        <v>20.924607</v>
+        <v>20.924607000000002</v>
       </c>
       <c r="AG17" s="1">
-        <v>1228.210000</v>
+        <v>1228.21</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.818600</v>
+        <v>-86.818600000000004</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>75338.804733</v>
+        <v>75338.804732999997</v>
       </c>
       <c r="AK17" s="1">
         <v>20.927446</v>
       </c>
       <c r="AL17" s="1">
-        <v>1235.560000</v>
+        <v>1235.56</v>
       </c>
       <c r="AM17" s="1">
-        <v>-90.055700</v>
+        <v>-90.055700000000002</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>75350.024239</v>
+        <v>75350.024239000006</v>
       </c>
       <c r="AP17" s="1">
-        <v>20.930562</v>
+        <v>20.930561999999998</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1243.560000</v>
+        <v>1243.56</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.907000</v>
+        <v>-101.907</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>75360.720997</v>
+        <v>75360.720996999997</v>
       </c>
       <c r="AU17" s="1">
-        <v>20.933534</v>
+        <v>20.933534000000002</v>
       </c>
       <c r="AV17" s="1">
-        <v>1253.610000</v>
+        <v>1253.6099999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.219000</v>
+        <v>-121.21899999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>75371.748514</v>
+        <v>75371.748514000006</v>
       </c>
       <c r="AZ17" s="1">
-        <v>20.936597</v>
+        <v>20.936596999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1262.090000</v>
+        <v>1262.0899999999999</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.741000</v>
+        <v>-138.74100000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>75382.772131</v>
+        <v>75382.772131000005</v>
       </c>
       <c r="BE17" s="1">
-        <v>20.939659</v>
+        <v>20.939658999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1302.460000</v>
+        <v>1302.46</v>
       </c>
       <c r="BG17" s="1">
-        <v>-220.901000</v>
+        <v>-220.90100000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>75394.351732</v>
+        <v>75394.351731999996</v>
       </c>
       <c r="BJ17" s="1">
-        <v>20.942875</v>
+        <v>20.942875000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1372.820000</v>
+        <v>1372.82</v>
       </c>
       <c r="BL17" s="1">
-        <v>-357.445000</v>
+        <v>-357.44499999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>75405.568230</v>
+        <v>75405.568230000004</v>
       </c>
       <c r="BO17" s="1">
-        <v>20.945991</v>
+        <v>20.945990999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1488.520000</v>
+        <v>1488.52</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-578.825000</v>
+        <v>-578.82500000000005</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>75416.211383</v>
+        <v>75416.211383000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>20.948948</v>
+        <v>20.948948000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1621.360000</v>
+        <v>1621.36</v>
       </c>
       <c r="BV17" s="1">
-        <v>-827.991000</v>
+        <v>-827.99099999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>75427.327721</v>
+        <v>75427.327720999994</v>
       </c>
       <c r="BY17" s="1">
-        <v>20.952035</v>
+        <v>20.952034999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1774.670000</v>
+        <v>1774.67</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1097.480000</v>
+        <v>-1097.48</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>75439.757329</v>
       </c>
       <c r="CD17" s="1">
-        <v>20.955488</v>
+        <v>20.955487999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>2190.910000</v>
+        <v>2190.91</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1749.680000</v>
+        <v>-1749.68</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>75266.504397</v>
+        <v>75266.504396999997</v>
       </c>
       <c r="B18" s="1">
-        <v>20.907362</v>
+        <v>20.907361999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1148.950000</v>
+        <v>1148.95</v>
       </c>
       <c r="D18" s="1">
-        <v>-253.377000</v>
+        <v>-253.37700000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>75277.236334</v>
+        <v>75277.236334000001</v>
       </c>
       <c r="G18" s="1">
-        <v>20.910343</v>
+        <v>20.910343000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1170.110000</v>
+        <v>1170.1099999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-214.131000</v>
+        <v>-214.131</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>75287.726723</v>
       </c>
       <c r="L18" s="1">
-        <v>20.913257</v>
+        <v>20.913257000000002</v>
       </c>
       <c r="M18" s="1">
-        <v>1198.970000</v>
+        <v>1198.97</v>
       </c>
       <c r="N18" s="1">
-        <v>-150.680000</v>
+        <v>-150.68</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>75298.273651</v>
+        <v>75298.273650999996</v>
       </c>
       <c r="Q18" s="1">
-        <v>20.916187</v>
+        <v>20.916187000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1207.420000</v>
+        <v>1207.42</v>
       </c>
       <c r="S18" s="1">
-        <v>-128.854000</v>
+        <v>-128.85400000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>75308.475861</v>
+        <v>75308.475860999999</v>
       </c>
       <c r="V18" s="1">
-        <v>20.919021</v>
+        <v>20.919021000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1215.210000</v>
+        <v>1215.21</v>
       </c>
       <c r="X18" s="1">
-        <v>-108.335000</v>
+        <v>-108.33499999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>75318.703368</v>
+        <v>75318.703368000002</v>
       </c>
       <c r="AA18" s="1">
-        <v>20.921862</v>
+        <v>20.921862000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1223.370000</v>
+        <v>1223.3699999999999</v>
       </c>
       <c r="AC18" s="1">
-        <v>-91.461600</v>
+        <v>-91.461600000000004</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>75329.274602</v>
+        <v>75329.274602000005</v>
       </c>
       <c r="AF18" s="1">
         <v>20.924799</v>
       </c>
       <c r="AG18" s="1">
-        <v>1228.270000</v>
+        <v>1228.27</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.802500</v>
+        <v>-86.802499999999995</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>75339.501116</v>
+        <v>75339.501115999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>20.927639</v>
+        <v>20.927638999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1235.550000</v>
+        <v>1235.55</v>
       </c>
       <c r="AM18" s="1">
-        <v>-90.049800</v>
+        <v>-90.049800000000005</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>75350.383838</v>
+        <v>75350.383837999994</v>
       </c>
       <c r="AP18" s="1">
-        <v>20.930662</v>
+        <v>20.930662000000002</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1243.580000</v>
+        <v>1243.58</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.935000</v>
+        <v>-101.935</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>75361.086016</v>
+        <v>75361.086016000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>20.933635</v>
+        <v>20.933634999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1253.640000</v>
+        <v>1253.6400000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.222000</v>
+        <v>-121.22199999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>75372.103650</v>
+        <v>75372.103650000005</v>
       </c>
       <c r="AZ18" s="1">
         <v>20.936695</v>
       </c>
       <c r="BA18" s="1">
-        <v>1262.100000</v>
+        <v>1262.0999999999999</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.724000</v>
+        <v>-138.72399999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>75383.460546</v>
+        <v>75383.460546000002</v>
       </c>
       <c r="BE18" s="1">
-        <v>20.939850</v>
+        <v>20.93985</v>
       </c>
       <c r="BF18" s="1">
-        <v>1302.450000</v>
+        <v>1302.45</v>
       </c>
       <c r="BG18" s="1">
-        <v>-220.903000</v>
+        <v>-220.90299999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>75394.819925</v>
+        <v>75394.819925000003</v>
       </c>
       <c r="BJ18" s="1">
         <v>20.943006</v>
       </c>
       <c r="BK18" s="1">
-        <v>1372.810000</v>
+        <v>1372.81</v>
       </c>
       <c r="BL18" s="1">
-        <v>-357.429000</v>
+        <v>-357.42899999999997</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>75406.075638</v>
+        <v>75406.075637999995</v>
       </c>
       <c r="BO18" s="1">
-        <v>20.946132</v>
+        <v>20.946131999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1488.530000</v>
+        <v>1488.53</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-578.796000</v>
+        <v>-578.79600000000005</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>75416.647367</v>
+        <v>75416.647366999998</v>
       </c>
       <c r="BT18" s="1">
-        <v>20.949069</v>
+        <v>20.949069000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1621.480000</v>
+        <v>1621.48</v>
       </c>
       <c r="BV18" s="1">
-        <v>-828.162000</v>
+        <v>-828.16200000000003</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>75427.773129</v>
+        <v>75427.773128999994</v>
       </c>
       <c r="BY18" s="1">
-        <v>20.952159</v>
+        <v>20.952159000000002</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1774.800000</v>
+        <v>1774.8</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1097.530000</v>
+        <v>-1097.53</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>75440.309513</v>
       </c>
       <c r="CD18" s="1">
-        <v>20.955642</v>
+        <v>20.955642000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>2190.940000</v>
+        <v>2190.94</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1748.610000</v>
+        <v>-1748.61</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>75266.782652</v>
+        <v>75266.782651999994</v>
       </c>
       <c r="B19" s="1">
-        <v>20.907440</v>
+        <v>20.907440000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1148.890000</v>
+        <v>1148.8900000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-253.477000</v>
+        <v>-253.477</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>75277.580096</v>
+        <v>75277.580096000005</v>
       </c>
       <c r="G19" s="1">
         <v>20.910439</v>
       </c>
       <c r="H19" s="1">
-        <v>1169.520000</v>
+        <v>1169.52</v>
       </c>
       <c r="I19" s="1">
-        <v>-213.670000</v>
+        <v>-213.67</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>75288.074418</v>
+        <v>75288.074418000004</v>
       </c>
       <c r="L19" s="1">
-        <v>20.913354</v>
+        <v>20.913354000000002</v>
       </c>
       <c r="M19" s="1">
-        <v>1198.970000</v>
+        <v>1198.97</v>
       </c>
       <c r="N19" s="1">
-        <v>-150.508000</v>
+        <v>-150.50800000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>75298.621844</v>
+        <v>75298.621843999994</v>
       </c>
       <c r="Q19" s="1">
-        <v>20.916284</v>
+        <v>20.916284000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1207.290000</v>
+        <v>1207.29</v>
       </c>
       <c r="S19" s="1">
-        <v>-128.919000</v>
+        <v>-128.91900000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>75308.820581</v>
+        <v>75308.820581000007</v>
       </c>
       <c r="V19" s="1">
         <v>20.919117</v>
       </c>
       <c r="W19" s="1">
-        <v>1215.210000</v>
+        <v>1215.21</v>
       </c>
       <c r="X19" s="1">
-        <v>-108.404000</v>
+        <v>-108.404</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>75319.398760</v>
+        <v>75319.398759999996</v>
       </c>
       <c r="AA19" s="1">
         <v>20.922055</v>
       </c>
       <c r="AB19" s="1">
-        <v>1223.370000</v>
+        <v>1223.3699999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-91.344500</v>
+        <v>-91.344499999999996</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>75329.616842</v>
+        <v>75329.616842000003</v>
       </c>
       <c r="AF19" s="1">
-        <v>20.924894</v>
+        <v>20.924893999999998</v>
       </c>
       <c r="AG19" s="1">
-        <v>1228.220000</v>
+        <v>1228.22</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.833800</v>
+        <v>-86.833799999999997</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>75339.850339</v>
+        <v>75339.850338999997</v>
       </c>
       <c r="AK19" s="1">
-        <v>20.927736</v>
+        <v>20.927735999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1235.550000</v>
+        <v>1235.55</v>
       </c>
       <c r="AM19" s="1">
-        <v>-90.051600</v>
+        <v>-90.051599999999993</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>75350.743934</v>
+        <v>75350.743933999998</v>
       </c>
       <c r="AP19" s="1">
-        <v>20.930762</v>
+        <v>20.930762000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1243.600000</v>
+        <v>1243.5999999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.910000</v>
+        <v>-101.91</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>75361.767025</v>
+        <v>75361.767024999994</v>
       </c>
       <c r="AU19" s="1">
-        <v>20.933824</v>
+        <v>20.933824000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1253.650000</v>
+        <v>1253.6500000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.234000</v>
+        <v>-121.23399999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>75372.780193</v>
+        <v>75372.780192999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>20.936883</v>
+        <v>20.936883000000002</v>
       </c>
       <c r="BA19" s="1">
-        <v>1262.120000</v>
+        <v>1262.1199999999999</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.739000</v>
+        <v>-138.739</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>75383.863795</v>
+        <v>75383.863794999997</v>
       </c>
       <c r="BE19" s="1">
-        <v>20.939962</v>
+        <v>20.939962000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1302.470000</v>
+        <v>1302.47</v>
       </c>
       <c r="BG19" s="1">
-        <v>-220.885000</v>
+        <v>-220.88499999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>75395.198372</v>
+        <v>75395.198371999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>20.943111</v>
+        <v>20.943110999999998</v>
       </c>
       <c r="BK19" s="1">
-        <v>1372.820000</v>
+        <v>1372.82</v>
       </c>
       <c r="BL19" s="1">
-        <v>-357.445000</v>
+        <v>-357.44499999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>75406.495252</v>
+        <v>75406.495251999993</v>
       </c>
       <c r="BO19" s="1">
-        <v>20.946249</v>
+        <v>20.946249000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1488.510000</v>
+        <v>1488.51</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-578.767000</v>
+        <v>-578.76700000000005</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>75417.078919</v>
+        <v>75417.078919000007</v>
       </c>
       <c r="BT19" s="1">
-        <v>20.949189</v>
+        <v>20.949189000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1621.500000</v>
+        <v>1621.5</v>
       </c>
       <c r="BV19" s="1">
-        <v>-828.102000</v>
+        <v>-828.10199999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>75428.203655</v>
+        <v>75428.203655000005</v>
       </c>
       <c r="BY19" s="1">
-        <v>20.952279</v>
+        <v>20.952279000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1774.740000</v>
+        <v>1774.74</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1097.350000</v>
+        <v>-1097.3499999999999</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>75440.835303</v>
       </c>
       <c r="CD19" s="1">
-        <v>20.955788</v>
+        <v>20.955787999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>2191.550000</v>
+        <v>2191.5500000000002</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1750.730000</v>
+        <v>-1750.73</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>75267.125388</v>
       </c>
       <c r="B20" s="1">
-        <v>20.907535</v>
+        <v>20.907534999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1148.960000</v>
+        <v>1148.96</v>
       </c>
       <c r="D20" s="1">
-        <v>-253.472000</v>
+        <v>-253.47200000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>75277.926302</v>
+        <v>75277.926302000007</v>
       </c>
       <c r="G20" s="1">
-        <v>20.910535</v>
+        <v>20.910534999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1170.630000</v>
+        <v>1170.6300000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-214.445000</v>
+        <v>-214.44499999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>75288.419136</v>
+        <v>75288.419135999997</v>
       </c>
       <c r="L20" s="1">
-        <v>20.913450</v>
+        <v>20.913450000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1198.970000</v>
+        <v>1198.97</v>
       </c>
       <c r="N20" s="1">
-        <v>-150.224000</v>
+        <v>-150.22399999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>75299.319218</v>
+        <v>75299.319218000004</v>
       </c>
       <c r="Q20" s="1">
-        <v>20.916478</v>
+        <v>20.916478000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1207.390000</v>
+        <v>1207.3900000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-128.915000</v>
+        <v>-128.91499999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>75309.518453</v>
+        <v>75309.518452999997</v>
       </c>
       <c r="V20" s="1">
         <v>20.919311</v>
       </c>
       <c r="W20" s="1">
-        <v>1215.250000</v>
+        <v>1215.25</v>
       </c>
       <c r="X20" s="1">
-        <v>-108.326000</v>
+        <v>-108.32599999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>75319.745991</v>
+        <v>75319.745991000003</v>
       </c>
       <c r="AA20" s="1">
-        <v>20.922152</v>
+        <v>20.922152000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1223.310000</v>
+        <v>1223.31</v>
       </c>
       <c r="AC20" s="1">
-        <v>-91.383200</v>
+        <v>-91.383200000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>75329.960073</v>
+        <v>75329.960072999995</v>
       </c>
       <c r="AF20" s="1">
         <v>20.924989</v>
       </c>
       <c r="AG20" s="1">
-        <v>1228.230000</v>
+        <v>1228.23</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.813200</v>
+        <v>-86.813199999999995</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>75340.198987</v>
+        <v>75340.198986999996</v>
       </c>
       <c r="AK20" s="1">
         <v>20.927833</v>
       </c>
       <c r="AL20" s="1">
-        <v>1235.550000</v>
+        <v>1235.55</v>
       </c>
       <c r="AM20" s="1">
-        <v>-90.052100</v>
+        <v>-90.052099999999996</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>75351.439324</v>
+        <v>75351.439324000006</v>
       </c>
       <c r="AP20" s="1">
-        <v>20.930955</v>
+        <v>20.930955000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1243.600000</v>
+        <v>1243.5999999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.898000</v>
+        <v>-101.898</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>75362.207966</v>
+        <v>75362.207966000002</v>
       </c>
       <c r="AU20" s="1">
         <v>20.933947</v>
       </c>
       <c r="AV20" s="1">
-        <v>1253.630000</v>
+        <v>1253.6300000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.212000</v>
+        <v>-121.212</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>75373.178976</v>
+        <v>75373.178975999996</v>
       </c>
       <c r="AZ20" s="1">
-        <v>20.936994</v>
+        <v>20.936993999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1262.100000</v>
+        <v>1262.0999999999999</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.722000</v>
+        <v>-138.72200000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>75384.246210</v>
+        <v>75384.246209999998</v>
       </c>
       <c r="BE20" s="1">
         <v>20.940068</v>
       </c>
       <c r="BF20" s="1">
-        <v>1302.460000</v>
+        <v>1302.46</v>
       </c>
       <c r="BG20" s="1">
-        <v>-220.874000</v>
+        <v>-220.874</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>75395.577314</v>
+        <v>75395.577313999995</v>
       </c>
       <c r="BJ20" s="1">
         <v>20.943216</v>
       </c>
       <c r="BK20" s="1">
-        <v>1372.810000</v>
+        <v>1372.81</v>
       </c>
       <c r="BL20" s="1">
-        <v>-357.416000</v>
+        <v>-357.416</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>75406.893049</v>
+        <v>75406.893049000006</v>
       </c>
       <c r="BO20" s="1">
-        <v>20.946359</v>
+        <v>20.946359000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1488.540000</v>
+        <v>1488.54</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-578.823000</v>
+        <v>-578.82299999999998</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>75417.511893</v>
+        <v>75417.511893000003</v>
       </c>
       <c r="BT20" s="1">
         <v>20.949309</v>
       </c>
       <c r="BU20" s="1">
-        <v>1621.460000</v>
+        <v>1621.46</v>
       </c>
       <c r="BV20" s="1">
-        <v>-828.106000</v>
+        <v>-828.10599999999999</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>75428.628234</v>
+        <v>75428.628234000003</v>
       </c>
       <c r="BY20" s="1">
-        <v>20.952397</v>
+        <v>20.952397000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1774.750000</v>
+        <v>1774.75</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1097.400000</v>
+        <v>-1097.4000000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>75441.357192</v>
+        <v>75441.357191999996</v>
       </c>
       <c r="CD20" s="1">
-        <v>20.955933</v>
+        <v>20.955933000000002</v>
       </c>
       <c r="CE20" s="1">
-        <v>2193.510000</v>
+        <v>2193.5100000000002</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1749.800000</v>
+        <v>-1749.8</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>75267.467664</v>
+        <v>75267.467663999996</v>
       </c>
       <c r="B21" s="1">
-        <v>20.907630</v>
+        <v>20.907630000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1149.160000</v>
+        <v>1149.1600000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-253.419000</v>
+        <v>-253.41900000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>75278.614749</v>
@@ -5379,420 +5795,420 @@
         <v>20.910726</v>
       </c>
       <c r="H21" s="1">
-        <v>1170.550000</v>
+        <v>1170.55</v>
       </c>
       <c r="I21" s="1">
-        <v>-214.005000</v>
+        <v>-214.005</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>75289.111588</v>
       </c>
       <c r="L21" s="1">
-        <v>20.913642</v>
+        <v>20.913641999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1199.150000</v>
+        <v>1199.1500000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-150.423000</v>
+        <v>-150.423</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>75299.667937</v>
+        <v>75299.667937000006</v>
       </c>
       <c r="Q21" s="1">
-        <v>20.916574</v>
+        <v>20.916574000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1207.290000</v>
+        <v>1207.29</v>
       </c>
       <c r="S21" s="1">
-        <v>-128.869000</v>
+        <v>-128.869</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>75309.860724</v>
+        <v>75309.860723999998</v>
       </c>
       <c r="V21" s="1">
-        <v>20.919406</v>
+        <v>20.919405999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1215.350000</v>
+        <v>1215.3499999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-108.256000</v>
+        <v>-108.256</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>75320.095639</v>
+        <v>75320.095639000006</v>
       </c>
       <c r="AA21" s="1">
-        <v>20.922249</v>
+        <v>20.922249000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1223.330000</v>
+        <v>1223.33</v>
       </c>
       <c r="AC21" s="1">
-        <v>-91.326500</v>
+        <v>-91.326499999999996</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>75330.633144</v>
+        <v>75330.633144000007</v>
       </c>
       <c r="AF21" s="1">
         <v>20.925176</v>
       </c>
       <c r="AG21" s="1">
-        <v>1228.320000</v>
+        <v>1228.32</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.688100</v>
+        <v>-86.688100000000006</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>75340.874566</v>
+        <v>75340.874565999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>20.928021</v>
+        <v>20.928021000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1235.560000</v>
+        <v>1235.56</v>
       </c>
       <c r="AM21" s="1">
-        <v>-90.081100</v>
+        <v>-90.081100000000006</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>75351.851532</v>
+        <v>75351.851532000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>20.931070</v>
+        <v>20.931069999999998</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1243.620000</v>
+        <v>1243.6199999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.930000</v>
+        <v>-101.93</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>75362.575006</v>
+        <v>75362.575005999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>20.934049</v>
+        <v>20.934049000000002</v>
       </c>
       <c r="AV21" s="1">
-        <v>1253.630000</v>
+        <v>1253.6300000000001</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.202000</v>
+        <v>-121.202</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>75373.567375</v>
+        <v>75373.567374999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>20.937102</v>
+        <v>20.937101999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1262.110000</v>
+        <v>1262.1099999999999</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.733000</v>
+        <v>-138.733</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>75384.605836</v>
+        <v>75384.605836000002</v>
       </c>
       <c r="BE21" s="1">
         <v>20.940168</v>
       </c>
       <c r="BF21" s="1">
-        <v>1302.480000</v>
+        <v>1302.48</v>
       </c>
       <c r="BG21" s="1">
-        <v>-220.881000</v>
+        <v>-220.881</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>75396.001891</v>
+        <v>75396.001891000007</v>
       </c>
       <c r="BJ21" s="1">
         <v>20.943334</v>
       </c>
       <c r="BK21" s="1">
-        <v>1372.780000</v>
+        <v>1372.78</v>
       </c>
       <c r="BL21" s="1">
-        <v>-357.450000</v>
+        <v>-357.45</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>75407.329556</v>
+        <v>75407.329555999997</v>
       </c>
       <c r="BO21" s="1">
-        <v>20.946480</v>
+        <v>20.946480000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1488.520000</v>
+        <v>1488.52</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-578.859000</v>
+        <v>-578.85900000000004</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>75417.919109</v>
+        <v>75417.919108999995</v>
       </c>
       <c r="BT21" s="1">
-        <v>20.949422</v>
+        <v>20.949421999999998</v>
       </c>
       <c r="BU21" s="1">
-        <v>1621.540000</v>
+        <v>1621.54</v>
       </c>
       <c r="BV21" s="1">
-        <v>-828.146000</v>
+        <v>-828.14599999999996</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>75429.048342</v>
+        <v>75429.048341999995</v>
       </c>
       <c r="BY21" s="1">
         <v>20.952513</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1774.890000</v>
+        <v>1774.89</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1097.540000</v>
+        <v>-1097.54</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>75441.874391</v>
+        <v>75441.874391000005</v>
       </c>
       <c r="CD21" s="1">
-        <v>20.956076</v>
+        <v>20.956075999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2192.460000</v>
+        <v>2192.46</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1747.940000</v>
+        <v>-1747.94</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>75268.147643</v>
+        <v>75268.147643000004</v>
       </c>
       <c r="B22" s="1">
         <v>20.907819</v>
       </c>
       <c r="C22" s="1">
-        <v>1149.030000</v>
+        <v>1149.03</v>
       </c>
       <c r="D22" s="1">
-        <v>-253.621000</v>
+        <v>-253.62100000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>75278.960460</v>
+        <v>75278.960460000002</v>
       </c>
       <c r="G22" s="1">
         <v>20.910822</v>
       </c>
       <c r="H22" s="1">
-        <v>1170.660000</v>
+        <v>1170.6600000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-213.891000</v>
+        <v>-213.89099999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>75289.461727</v>
+        <v>75289.461727000002</v>
       </c>
       <c r="L22" s="1">
         <v>20.913739</v>
       </c>
       <c r="M22" s="1">
-        <v>1198.850000</v>
+        <v>1198.8499999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-150.476000</v>
+        <v>-150.476</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>75300.016593</v>
+        <v>75300.016592999993</v>
       </c>
       <c r="Q22" s="1">
-        <v>20.916671</v>
+        <v>20.916671000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1207.340000</v>
+        <v>1207.3399999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-128.983000</v>
+        <v>-128.983</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>75310.531780</v>
+        <v>75310.531780000005</v>
       </c>
       <c r="V22" s="1">
-        <v>20.919592</v>
+        <v>20.919592000000002</v>
       </c>
       <c r="W22" s="1">
-        <v>1215.390000</v>
+        <v>1215.3900000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-108.327000</v>
+        <v>-108.327</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>75320.757301</v>
+        <v>75320.757301000005</v>
       </c>
       <c r="AA22" s="1">
-        <v>20.922433</v>
+        <v>20.922433000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>1223.230000</v>
+        <v>1223.23</v>
       </c>
       <c r="AC22" s="1">
-        <v>-91.368800</v>
+        <v>-91.368799999999993</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>75330.999224</v>
+        <v>75330.999223999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>20.925278</v>
+        <v>20.925277999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1228.170000</v>
+        <v>1228.17</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.778900</v>
+        <v>-86.778899999999993</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>75341.243566</v>
+        <v>75341.243566000005</v>
       </c>
       <c r="AK22" s="1">
-        <v>20.928123</v>
+        <v>20.928122999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1235.560000</v>
+        <v>1235.56</v>
       </c>
       <c r="AM22" s="1">
-        <v>-90.063800</v>
+        <v>-90.063800000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>75352.212588</v>
+        <v>75352.212587999995</v>
       </c>
       <c r="AP22" s="1">
-        <v>20.931170</v>
+        <v>20.931170000000002</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1243.630000</v>
+        <v>1243.6300000000001</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.914000</v>
+        <v>-101.914</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>75362.937613</v>
+        <v>75362.937613000002</v>
       </c>
       <c r="AU22" s="1">
-        <v>20.934149</v>
+        <v>20.934149000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1253.630000</v>
+        <v>1253.6300000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.219000</v>
+        <v>-121.21899999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>75373.924464</v>
+        <v>75373.924463999996</v>
       </c>
       <c r="AZ22" s="1">
-        <v>20.937201</v>
+        <v>20.937201000000002</v>
       </c>
       <c r="BA22" s="1">
-        <v>1262.120000</v>
+        <v>1262.1199999999999</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.713000</v>
+        <v>-138.71299999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>75385.031872</v>
+        <v>75385.031872000007</v>
       </c>
       <c r="BE22" s="1">
-        <v>20.940287</v>
+        <v>20.940287000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1302.450000</v>
+        <v>1302.45</v>
       </c>
       <c r="BG22" s="1">
-        <v>-220.876000</v>
+        <v>-220.876</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>75396.350091</v>
@@ -5801,951 +6217,951 @@
         <v>20.943431</v>
       </c>
       <c r="BK22" s="1">
-        <v>1372.820000</v>
+        <v>1372.82</v>
       </c>
       <c r="BL22" s="1">
-        <v>-357.429000</v>
+        <v>-357.42899999999997</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>75407.710450</v>
+        <v>75407.710449999999</v>
       </c>
       <c r="BO22" s="1">
         <v>20.946586</v>
       </c>
       <c r="BP22" s="1">
-        <v>1488.570000</v>
+        <v>1488.57</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-578.829000</v>
+        <v>-578.82899999999995</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>75418.346660</v>
+        <v>75418.346659999996</v>
       </c>
       <c r="BT22" s="1">
         <v>20.949541</v>
       </c>
       <c r="BU22" s="1">
-        <v>1621.560000</v>
+        <v>1621.56</v>
       </c>
       <c r="BV22" s="1">
-        <v>-828.225000</v>
+        <v>-828.22500000000002</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>75429.472918</v>
+        <v>75429.472917999999</v>
       </c>
       <c r="BY22" s="1">
         <v>20.952631</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1774.780000</v>
+        <v>1774.78</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1097.480000</v>
+        <v>-1097.48</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>75442.390543</v>
+        <v>75442.390543000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>20.956220</v>
+        <v>20.956219999999998</v>
       </c>
       <c r="CE22" s="1">
-        <v>2192.780000</v>
+        <v>2192.7800000000002</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1748.630000</v>
+        <v>-1748.63</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>75268.493354</v>
+        <v>75268.493354000006</v>
       </c>
       <c r="B23" s="1">
-        <v>20.907915</v>
+        <v>20.907914999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1149.020000</v>
+        <v>1149.02</v>
       </c>
       <c r="D23" s="1">
-        <v>-253.375000</v>
+        <v>-253.375</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>75279.304168</v>
+        <v>75279.304168000002</v>
       </c>
       <c r="G23" s="1">
-        <v>20.910918</v>
+        <v>20.910917999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1170.960000</v>
+        <v>1170.96</v>
       </c>
       <c r="I23" s="1">
-        <v>-214.130000</v>
+        <v>-214.13</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>75289.808926</v>
+        <v>75289.808925999998</v>
       </c>
       <c r="L23" s="1">
         <v>20.913836</v>
       </c>
       <c r="M23" s="1">
-        <v>1199.200000</v>
+        <v>1199.2</v>
       </c>
       <c r="N23" s="1">
-        <v>-150.470000</v>
+        <v>-150.47</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>75300.678753</v>
       </c>
       <c r="Q23" s="1">
-        <v>20.916855</v>
+        <v>20.916855000000002</v>
       </c>
       <c r="R23" s="1">
-        <v>1207.450000</v>
+        <v>1207.45</v>
       </c>
       <c r="S23" s="1">
-        <v>-128.971000</v>
+        <v>-128.971</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>75310.893891</v>
       </c>
       <c r="V23" s="1">
-        <v>20.919693</v>
+        <v>20.919692999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1215.240000</v>
+        <v>1215.24</v>
       </c>
       <c r="X23" s="1">
-        <v>-108.264000</v>
+        <v>-108.264</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>75321.143189</v>
+        <v>75321.143188999995</v>
       </c>
       <c r="AA23" s="1">
-        <v>20.922540</v>
+        <v>20.922540000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1223.320000</v>
+        <v>1223.32</v>
       </c>
       <c r="AC23" s="1">
-        <v>-91.343400</v>
+        <v>-91.343400000000003</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>75331.344407</v>
+        <v>75331.344406999997</v>
       </c>
       <c r="AF23" s="1">
         <v>20.925373</v>
       </c>
       <c r="AG23" s="1">
-        <v>1228.200000</v>
+        <v>1228.2</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.829600</v>
+        <v>-86.829599999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>75341.594234</v>
+        <v>75341.594234000004</v>
       </c>
       <c r="AK23" s="1">
-        <v>20.928221</v>
+        <v>20.928221000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1235.580000</v>
+        <v>1235.58</v>
       </c>
       <c r="AM23" s="1">
-        <v>-90.062600</v>
+        <v>-90.062600000000003</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>75352.571691</v>
+        <v>75352.571691000005</v>
       </c>
       <c r="AP23" s="1">
-        <v>20.931270</v>
+        <v>20.931270000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1243.580000</v>
+        <v>1243.58</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.908000</v>
+        <v>-101.908</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>75363.365134</v>
+        <v>75363.365134000007</v>
       </c>
       <c r="AU23" s="1">
-        <v>20.934268</v>
+        <v>20.934267999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1253.650000</v>
+        <v>1253.6500000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.230000</v>
+        <v>-121.23</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>75374.348084</v>
+        <v>75374.348083999997</v>
       </c>
       <c r="AZ23" s="1">
-        <v>20.937319</v>
+        <v>20.937318999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1262.120000</v>
+        <v>1262.1199999999999</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.700000</v>
+        <v>-138.69999999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>75385.329473</v>
+        <v>75385.329473000005</v>
       </c>
       <c r="BE23" s="1">
         <v>20.940369</v>
       </c>
       <c r="BF23" s="1">
-        <v>1302.450000</v>
+        <v>1302.45</v>
       </c>
       <c r="BG23" s="1">
-        <v>-220.888000</v>
+        <v>-220.88800000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>75396.725057</v>
+        <v>75396.725057000003</v>
       </c>
       <c r="BJ23" s="1">
-        <v>20.943535</v>
+        <v>20.943535000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1372.790000</v>
+        <v>1372.79</v>
       </c>
       <c r="BL23" s="1">
-        <v>-357.413000</v>
+        <v>-357.41300000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>75408.130102</v>
+        <v>75408.130101999996</v>
       </c>
       <c r="BO23" s="1">
-        <v>20.946703</v>
+        <v>20.946702999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1488.510000</v>
+        <v>1488.51</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-578.820000</v>
+        <v>-578.82000000000005</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>75418.758847</v>
+        <v>75418.758847000005</v>
       </c>
       <c r="BT23" s="1">
         <v>20.949655</v>
       </c>
       <c r="BU23" s="1">
-        <v>1621.570000</v>
+        <v>1621.57</v>
       </c>
       <c r="BV23" s="1">
-        <v>-828.147000</v>
+        <v>-828.14700000000005</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>75429.900005</v>
+        <v>75429.900005000003</v>
       </c>
       <c r="BY23" s="1">
-        <v>20.952750</v>
+        <v>20.952750000000002</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1774.610000</v>
+        <v>1774.61</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1097.440000</v>
+        <v>-1097.44</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>75442.945251</v>
+        <v>75442.945250999997</v>
       </c>
       <c r="CD23" s="1">
         <v>20.956374</v>
       </c>
       <c r="CE23" s="1">
-        <v>2193.640000</v>
+        <v>2193.64</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1749.280000</v>
+        <v>-1749.28</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>75268.834603</v>
+        <v>75268.834602999996</v>
       </c>
       <c r="B24" s="1">
-        <v>20.908010</v>
+        <v>20.908010000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1149.030000</v>
+        <v>1149.03</v>
       </c>
       <c r="D24" s="1">
-        <v>-253.244000</v>
+        <v>-253.244</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>75279.959899</v>
+        <v>75279.959898999994</v>
       </c>
       <c r="G24" s="1">
-        <v>20.911100</v>
+        <v>20.911100000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1169.980000</v>
+        <v>1169.98</v>
       </c>
       <c r="I24" s="1">
-        <v>-213.952000</v>
+        <v>-213.952</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>75290.470107</v>
+        <v>75290.470107000001</v>
       </c>
       <c r="L24" s="1">
         <v>20.914019</v>
       </c>
       <c r="M24" s="1">
-        <v>1198.980000</v>
+        <v>1198.98</v>
       </c>
       <c r="N24" s="1">
-        <v>-150.665000</v>
+        <v>-150.66499999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>75301.063679</v>
+        <v>75301.063678999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>20.916962</v>
+        <v>20.916962000000002</v>
       </c>
       <c r="R24" s="1">
-        <v>1207.370000</v>
+        <v>1207.3699999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-128.904000</v>
+        <v>-128.904</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>75311.240562</v>
+        <v>75311.240562000006</v>
       </c>
       <c r="V24" s="1">
-        <v>20.919789</v>
+        <v>20.919789000000002</v>
       </c>
       <c r="W24" s="1">
-        <v>1215.300000</v>
+        <v>1215.3</v>
       </c>
       <c r="X24" s="1">
-        <v>-108.351000</v>
+        <v>-108.351</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>75321.491380</v>
+        <v>75321.491380000007</v>
       </c>
       <c r="AA24" s="1">
-        <v>20.922636</v>
+        <v>20.922636000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1223.300000</v>
+        <v>1223.3</v>
       </c>
       <c r="AC24" s="1">
-        <v>-91.280100</v>
+        <v>-91.280100000000004</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>75331.690119</v>
+        <v>75331.690119000006</v>
       </c>
       <c r="AF24" s="1">
         <v>20.925469</v>
       </c>
       <c r="AG24" s="1">
-        <v>1228.290000</v>
+        <v>1228.29</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.875900</v>
+        <v>-86.875900000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>75341.944410</v>
+        <v>75341.944409999996</v>
       </c>
       <c r="AK24" s="1">
-        <v>20.928318</v>
+        <v>20.928318000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1235.570000</v>
+        <v>1235.57</v>
       </c>
       <c r="AM24" s="1">
-        <v>-90.068100</v>
+        <v>-90.068100000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>75353.001226</v>
+        <v>75353.001225999993</v>
       </c>
       <c r="AP24" s="1">
-        <v>20.931389</v>
+        <v>20.931388999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1243.590000</v>
+        <v>1243.5899999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.923000</v>
+        <v>-101.923</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>75363.665213</v>
       </c>
       <c r="AU24" s="1">
-        <v>20.934351</v>
+        <v>20.934350999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1253.620000</v>
+        <v>1253.6199999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.220000</v>
+        <v>-121.22</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>75374.643198</v>
+        <v>75374.643198000005</v>
       </c>
       <c r="AZ24" s="1">
-        <v>20.937401</v>
+        <v>20.937401000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1262.090000</v>
+        <v>1262.0899999999999</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.755000</v>
+        <v>-138.755</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>75385.692047</v>
+        <v>75385.692047000004</v>
       </c>
       <c r="BE24" s="1">
-        <v>20.940470</v>
+        <v>20.940470000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1302.450000</v>
+        <v>1302.45</v>
       </c>
       <c r="BG24" s="1">
-        <v>-220.882000</v>
+        <v>-220.88200000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>75397.101025</v>
+        <v>75397.101024999996</v>
       </c>
       <c r="BJ24" s="1">
-        <v>20.943639</v>
+        <v>20.943639000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1372.820000</v>
+        <v>1372.82</v>
       </c>
       <c r="BL24" s="1">
-        <v>-357.453000</v>
+        <v>-357.45299999999997</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>75408.524385</v>
+        <v>75408.524384999997</v>
       </c>
       <c r="BO24" s="1">
-        <v>20.946812</v>
+        <v>20.946812000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1488.550000</v>
+        <v>1488.55</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-578.815000</v>
+        <v>-578.81500000000005</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>75419.191347</v>
       </c>
       <c r="BT24" s="1">
-        <v>20.949775</v>
+        <v>20.949774999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1621.670000</v>
+        <v>1621.67</v>
       </c>
       <c r="BV24" s="1">
-        <v>-828.213000</v>
+        <v>-828.21299999999997</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>75430.335956</v>
+        <v>75430.335955999995</v>
       </c>
       <c r="BY24" s="1">
-        <v>20.952871</v>
+        <v>20.952870999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1774.820000</v>
+        <v>1774.82</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1097.630000</v>
+        <v>-1097.6300000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>75443.474484</v>
+        <v>75443.474484000006</v>
       </c>
       <c r="CD24" s="1">
-        <v>20.956521</v>
+        <v>20.956520999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>2192.050000</v>
+        <v>2192.0500000000002</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1748.200000</v>
+        <v>-1748.2</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>75269.487865</v>
+        <v>75269.487865000003</v>
       </c>
       <c r="B25" s="1">
-        <v>20.908191</v>
+        <v>20.908190999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1148.890000</v>
+        <v>1148.8900000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-253.497000</v>
+        <v>-253.49700000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>75280.338361</v>
+        <v>75280.338361000002</v>
       </c>
       <c r="G25" s="1">
-        <v>20.911205</v>
+        <v>20.911204999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1170.310000</v>
+        <v>1170.31</v>
       </c>
       <c r="I25" s="1">
-        <v>-213.926000</v>
+        <v>-213.92599999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>75290.845599</v>
+        <v>75290.845598999993</v>
       </c>
       <c r="L25" s="1">
-        <v>20.914124</v>
+        <v>20.914124000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1199.090000</v>
+        <v>1199.0899999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-150.333000</v>
+        <v>-150.333</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>75301.411839</v>
+        <v>75301.411838999993</v>
       </c>
       <c r="Q25" s="1">
-        <v>20.917059</v>
+        <v>20.917058999999998</v>
       </c>
       <c r="R25" s="1">
-        <v>1207.290000</v>
+        <v>1207.29</v>
       </c>
       <c r="S25" s="1">
-        <v>-128.919000</v>
+        <v>-128.91900000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>75311.586770</v>
+        <v>75311.586769999994</v>
       </c>
       <c r="V25" s="1">
-        <v>20.919885</v>
+        <v>20.919885000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1215.260000</v>
+        <v>1215.26</v>
       </c>
       <c r="X25" s="1">
-        <v>-108.233000</v>
+        <v>-108.233</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>75321.837093</v>
+        <v>75321.837092999995</v>
       </c>
       <c r="AA25" s="1">
-        <v>20.922733</v>
+        <v>20.922733000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1223.300000</v>
+        <v>1223.3</v>
       </c>
       <c r="AC25" s="1">
-        <v>-91.359400</v>
+        <v>-91.359399999999994</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>75332.117001</v>
+        <v>75332.117001000006</v>
       </c>
       <c r="AF25" s="1">
-        <v>20.925588</v>
+        <v>20.925588000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1228.260000</v>
+        <v>1228.26</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.848900</v>
+        <v>-86.8489</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>75342.397753</v>
+        <v>75342.397752999997</v>
       </c>
       <c r="AK25" s="1">
-        <v>20.928444</v>
+        <v>20.928443999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1235.550000</v>
+        <v>1235.55</v>
       </c>
       <c r="AM25" s="1">
-        <v>-90.073700</v>
+        <v>-90.073700000000002</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>75353.294363</v>
+        <v>75353.294362999994</v>
       </c>
       <c r="AP25" s="1">
-        <v>20.931471</v>
+        <v>20.931470999999998</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1243.620000</v>
+        <v>1243.6199999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.918000</v>
+        <v>-101.91800000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>75364.035724</v>
+        <v>75364.035724000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>20.934454</v>
+        <v>20.934453999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1253.630000</v>
+        <v>1253.6300000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.227000</v>
+        <v>-121.227</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>75375.002797</v>
+        <v>75375.002796999994</v>
       </c>
       <c r="AZ25" s="1">
-        <v>20.937501</v>
+        <v>20.937501000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1262.100000</v>
+        <v>1262.0999999999999</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.718000</v>
+        <v>-138.71799999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>75386.052145</v>
+        <v>75386.052144999994</v>
       </c>
       <c r="BE25" s="1">
-        <v>20.940570</v>
+        <v>20.940570000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1302.460000</v>
+        <v>1302.46</v>
       </c>
       <c r="BG25" s="1">
-        <v>-220.879000</v>
+        <v>-220.87899999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>75397.852463</v>
+        <v>75397.852463000003</v>
       </c>
       <c r="BJ25" s="1">
-        <v>20.943848</v>
+        <v>20.943847999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1372.820000</v>
+        <v>1372.82</v>
       </c>
       <c r="BL25" s="1">
-        <v>-357.425000</v>
+        <v>-357.42500000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>75408.952433</v>
+        <v>75408.952432999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>20.946931</v>
+        <v>20.946930999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1488.510000</v>
+        <v>1488.51</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-578.810000</v>
+        <v>-578.80999999999995</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>75419.616915</v>
+        <v>75419.616915000006</v>
       </c>
       <c r="BT25" s="1">
         <v>20.949894</v>
       </c>
       <c r="BU25" s="1">
-        <v>1621.660000</v>
+        <v>1621.66</v>
       </c>
       <c r="BV25" s="1">
-        <v>-828.121000</v>
+        <v>-828.12099999999998</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>75430.759044</v>
+        <v>75430.759044000006</v>
       </c>
       <c r="BY25" s="1">
-        <v>20.952989</v>
+        <v>20.952988999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1774.750000</v>
+        <v>1774.75</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1097.340000</v>
+        <v>-1097.3399999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>75444.308754</v>
+        <v>75444.308753999998</v>
       </c>
       <c r="CD25" s="1">
-        <v>20.956752</v>
+        <v>20.956752000000002</v>
       </c>
       <c r="CE25" s="1">
-        <v>2190.790000</v>
+        <v>2190.79</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1749.380000</v>
+        <v>-1749.38</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>75269.859832</v>
+        <v>75269.859832000002</v>
       </c>
       <c r="B26" s="1">
-        <v>20.908294</v>
+        <v>20.908294000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1149.180000</v>
+        <v>1149.18</v>
       </c>
       <c r="D26" s="1">
-        <v>-253.648000</v>
+        <v>-253.648</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>75280.686010</v>
+        <v>75280.686010000005</v>
       </c>
       <c r="G26" s="1">
-        <v>20.911302</v>
+        <v>20.911301999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1170.800000</v>
+        <v>1170.8</v>
       </c>
       <c r="I26" s="1">
-        <v>-213.958000</v>
+        <v>-213.958</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>75291.191294</v>
+        <v>75291.191294000004</v>
       </c>
       <c r="L26" s="1">
-        <v>20.914220</v>
+        <v>20.91422</v>
       </c>
       <c r="M26" s="1">
-        <v>1199.150000</v>
+        <v>1199.1500000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-150.324000</v>
+        <v>-150.32400000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>75301.766974</v>
+        <v>75301.766973999998</v>
       </c>
       <c r="Q26" s="1">
         <v>20.917157</v>
       </c>
       <c r="R26" s="1">
-        <v>1207.370000</v>
+        <v>1207.3699999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-128.896000</v>
+        <v>-128.89599999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>75312.022256</v>
+        <v>75312.022255999997</v>
       </c>
       <c r="V26" s="1">
-        <v>20.920006</v>
+        <v>20.920006000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1215.250000</v>
+        <v>1215.25</v>
       </c>
       <c r="X26" s="1">
-        <v>-108.454000</v>
+        <v>-108.45399999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>75322.270595</v>
+        <v>75322.270594999995</v>
       </c>
       <c r="AA26" s="1">
         <v>20.922853</v>
       </c>
       <c r="AB26" s="1">
-        <v>1223.380000</v>
+        <v>1223.3800000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-91.238600</v>
+        <v>-91.238600000000005</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>75332.384023</v>
+        <v>75332.384023000006</v>
       </c>
       <c r="AF26" s="1">
-        <v>20.925662</v>
+        <v>20.925661999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1228.270000</v>
+        <v>1228.27</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.800200</v>
+        <v>-86.800200000000004</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>75342.648728</v>
@@ -6754,150 +7170,151 @@
         <v>20.928514</v>
       </c>
       <c r="AL26" s="1">
-        <v>1235.580000</v>
+        <v>1235.58</v>
       </c>
       <c r="AM26" s="1">
-        <v>-90.068300</v>
+        <v>-90.068299999999994</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>75353.650489</v>
+        <v>75353.650489000007</v>
       </c>
       <c r="AP26" s="1">
-        <v>20.931570</v>
+        <v>20.931570000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1243.610000</v>
+        <v>1243.6099999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.919000</v>
+        <v>-101.919</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>75364.397543</v>
+        <v>75364.397542999999</v>
       </c>
       <c r="AU26" s="1">
         <v>20.934555</v>
       </c>
       <c r="AV26" s="1">
-        <v>1253.630000</v>
+        <v>1253.6300000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.221000</v>
+        <v>-121.221</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>75375.362365</v>
+        <v>75375.362364999994</v>
       </c>
       <c r="AZ26" s="1">
-        <v>20.937601</v>
+        <v>20.937601000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1262.110000</v>
+        <v>1262.1099999999999</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.753000</v>
+        <v>-138.75299999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>75386.773326</v>
+        <v>75386.773325999995</v>
       </c>
       <c r="BE26" s="1">
-        <v>20.940770</v>
+        <v>20.940770000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1302.460000</v>
+        <v>1302.46</v>
       </c>
       <c r="BG26" s="1">
-        <v>-220.880000</v>
+        <v>-220.88</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>75398.226943</v>
+        <v>75398.226943000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>20.943952</v>
+        <v>20.943951999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1372.780000</v>
+        <v>1372.78</v>
       </c>
       <c r="BL26" s="1">
-        <v>-357.427000</v>
+        <v>-357.42700000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>75409.346752</v>
+        <v>75409.346751999998</v>
       </c>
       <c r="BO26" s="1">
-        <v>20.947041</v>
+        <v>20.947040999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1488.480000</v>
+        <v>1488.48</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-578.793000</v>
+        <v>-578.79300000000001</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>75420.031074</v>
+        <v>75420.031073999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>20.950009</v>
+        <v>20.950009000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1621.770000</v>
+        <v>1621.77</v>
       </c>
       <c r="BV26" s="1">
-        <v>-828.200000</v>
+        <v>-828.2</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>75431.491646</v>
+        <v>75431.491645999995</v>
       </c>
       <c r="BY26" s="1">
-        <v>20.953192</v>
+        <v>20.953192000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1774.870000</v>
+        <v>1774.87</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1097.410000</v>
+        <v>-1097.4100000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>75444.508675</v>
+        <v>75444.508675000005</v>
       </c>
       <c r="CD26" s="1">
-        <v>20.956808</v>
+        <v>20.956807999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>2192.440000</v>
+        <v>2192.44</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1750.350000</v>
+        <v>-1750.35</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>